--- a/Test cases.xlsx
+++ b/Test cases.xlsx
@@ -8,12 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thi Binh\Desktop\BaoCao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE00082B-E66D-47BB-AF6C-EDF9A733DB98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F33278F-738A-45AC-94D1-69A9D0CB76E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="0" showVerticalScroll="0" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView showHorizontalScroll="0" showVerticalScroll="0" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCase" sheetId="17" r:id="rId1"/>
+    <sheet name="TrangChu" sheetId="18" r:id="rId2"/>
+    <sheet name="QlKho" sheetId="19" r:id="rId3"/>
+    <sheet name="QlDanhMuc" sheetId="20" r:id="rId4"/>
+    <sheet name="QlNhaCungCap" sheetId="21" r:id="rId5"/>
+    <sheet name="QlSanPham" sheetId="22" r:id="rId6"/>
+    <sheet name="QlNhanSu" sheetId="23" r:id="rId7"/>
+    <sheet name="QlPhieuNhap" sheetId="24" r:id="rId8"/>
+    <sheet name="QlPhieuXuat" sheetId="25" r:id="rId9"/>
+    <sheet name="ThongTinNguoiDung" sheetId="26" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="170">
   <si>
     <t>Thiết kế</t>
   </si>
@@ -1117,8 +1126,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:F93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A84" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E89" sqref="E89"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2384,4 +2393,1961 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC2B8E0D-D2E7-4C96-B68A-91E22B34243F}">
+  <dimension ref="B2:F85"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.5546875" customWidth="1"/>
+    <col min="4" max="4" width="25.33203125" customWidth="1"/>
+    <col min="5" max="5" width="35.44140625" customWidth="1"/>
+    <col min="6" max="6" width="22" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="8">
+        <v>11</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+    </row>
+    <row r="4" spans="2:6" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="3">
+        <v>11.1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="2:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="3">
+        <v>11.2</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F5" s="11"/>
+    </row>
+    <row r="6" spans="2:6" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="3">
+        <v>11.3</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="2:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="3">
+        <v>11.4</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="2:6" ht="43.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="3">
+        <v>11.5</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F8" s="11"/>
+    </row>
+    <row r="9" spans="2:6" ht="43.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="3">
+        <v>11.6</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="F9" s="11"/>
+    </row>
+    <row r="10" spans="2:6" ht="43.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="3">
+        <v>11.7</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="F10" s="11"/>
+    </row>
+    <row r="11" spans="2:6" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="3">
+        <v>11.8</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="F11" s="11"/>
+    </row>
+    <row r="12" spans="2:6" ht="50.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="3">
+        <v>11.9</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F12" s="11"/>
+    </row>
+    <row r="13" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="14">
+        <v>11.1</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="11"/>
+    </row>
+    <row r="19" ht="29.4" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" ht="28.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" ht="31.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" ht="43.8" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" ht="28.8" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" ht="29.4" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" ht="44.4" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" ht="58.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" ht="36" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" ht="41.4" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" ht="44.4" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" ht="31.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" ht="25.8" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" ht="35.4" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" ht="31.8" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" ht="28.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" ht="27.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" ht="43.8" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" ht="31.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" ht="31.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" ht="35.4" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" ht="30.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" ht="43.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" ht="32.4" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" ht="33" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" ht="39.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" ht="28.8" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" ht="29.4" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" ht="43.8" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" ht="31.8" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" ht="48.6" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D5" r:id="rId1" xr:uid="{A4A7C03A-37A2-47DA-9C92-F7F7F36520C1}"/>
+    <hyperlink ref="D6" r:id="rId2" xr:uid="{E195BA97-F9BC-47EA-8F9B-93C94FD2AADD}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{835B7B45-84FB-4C82-B63D-C7A027E23B54}">
+  <dimension ref="B2:F85"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.5546875" customWidth="1"/>
+    <col min="4" max="4" width="25.33203125" customWidth="1"/>
+    <col min="5" max="5" width="35.44140625" customWidth="1"/>
+    <col min="6" max="6" width="22" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="8">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+    </row>
+    <row r="4" spans="2:6" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="9">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="2:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="9">
+        <v>1.2</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="2:6" ht="25.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="9">
+        <v>1.3</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="9">
+        <v>1.4</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="8">
+        <v>2</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+    </row>
+    <row r="9" spans="2:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="10">
+        <v>2.1</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="2:6" ht="43.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="2:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="10">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="11"/>
+    </row>
+    <row r="12" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="10">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="8">
+        <v>3</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+    </row>
+    <row r="14" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="3">
+        <v>3.1</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="3">
+        <v>3.2</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" s="3"/>
+    </row>
+    <row r="16" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="3">
+        <v>3.3</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F16" s="3"/>
+    </row>
+    <row r="17" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="3">
+        <v>3.4</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="3"/>
+    </row>
+    <row r="19" spans="2:6" ht="29.4" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="2:6" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="2:6" ht="28.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="2:6" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" ht="31.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" ht="43.8" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" ht="28.8" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" ht="29.4" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" ht="44.4" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" ht="58.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" ht="36" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" ht="41.4" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" ht="44.4" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" ht="31.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" ht="25.8" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" ht="35.4" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" ht="31.8" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" ht="28.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" ht="27.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" ht="43.8" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" ht="31.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" ht="31.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" ht="35.4" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" ht="30.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" ht="43.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" ht="32.4" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" ht="33" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" ht="39.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" ht="28.8" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" ht="29.4" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" ht="43.8" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" ht="31.8" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" ht="48.6" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D75EF832-73A8-47A1-BB6C-94AC153CCAFF}">
+  <dimension ref="B2:F85"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.5546875" customWidth="1"/>
+    <col min="4" max="4" width="25.33203125" customWidth="1"/>
+    <col min="5" max="5" width="35.44140625" customWidth="1"/>
+    <col min="6" max="6" width="22" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="8">
+        <v>4</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+    </row>
+    <row r="4" spans="2:6" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="3">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="2:6" ht="46.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="3">
+        <v>4.2</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="2:6" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="3">
+        <v>4.3</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="3">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="2:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="3">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="2:6" ht="43.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="3">
+        <v>4.7</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="2:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="3">
+        <v>4.8</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="3">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="14">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="19" ht="29.4" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" ht="28.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" ht="31.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" ht="43.8" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" ht="28.8" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" ht="29.4" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" ht="44.4" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" ht="58.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" ht="36" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" ht="41.4" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" ht="44.4" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" ht="31.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" ht="25.8" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" ht="35.4" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" ht="31.8" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" ht="28.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" ht="27.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" ht="43.8" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" ht="31.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" ht="31.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" ht="35.4" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" ht="30.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" ht="43.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" ht="32.4" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" ht="33" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" ht="39.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" ht="28.8" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" ht="29.4" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" ht="43.8" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" ht="31.8" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" ht="48.6" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5617F6B4-A0D4-4FE0-B1DD-1589E8D2418E}">
+  <dimension ref="B2:F85"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:F94"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.5546875" customWidth="1"/>
+    <col min="4" max="4" width="25.33203125" customWidth="1"/>
+    <col min="5" max="5" width="35.44140625" customWidth="1"/>
+    <col min="6" max="6" width="22" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="8">
+        <v>5</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+    </row>
+    <row r="4" spans="2:6" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="3">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="2:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="3">
+        <v>5.2</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="2:6" ht="25.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="3">
+        <v>5.3</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="3">
+        <v>5.4</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="3">
+        <v>5.5</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="2:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="3">
+        <v>5.6</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="2:6" ht="43.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="2:6" ht="27" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" ht="29.4" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" ht="28.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" ht="31.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" ht="43.8" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" ht="28.8" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" ht="29.4" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" ht="44.4" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" ht="58.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" ht="36" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" ht="41.4" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" ht="44.4" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" ht="31.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" ht="25.8" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" ht="35.4" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" ht="31.8" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" ht="28.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" ht="27.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" ht="43.8" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" ht="31.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" ht="31.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" ht="35.4" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" ht="30.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" ht="43.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" ht="32.4" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" ht="33" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" ht="39.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" ht="28.8" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" ht="29.4" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" ht="43.8" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" ht="31.8" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" ht="48.6" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{994022E8-1F00-42D2-88B8-BC2EDF3A9438}">
+  <dimension ref="B2:F85"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.5546875" customWidth="1"/>
+    <col min="4" max="4" width="25.33203125" customWidth="1"/>
+    <col min="5" max="5" width="35.44140625" customWidth="1"/>
+    <col min="6" max="6" width="22" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="8">
+        <v>6</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+    </row>
+    <row r="4" spans="2:6" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="3">
+        <v>6.1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="2:6" ht="46.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="3">
+        <v>6.2</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="2:6" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="3">
+        <v>6.3</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="3">
+        <v>6.4</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="3">
+        <v>6.5</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="2:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="3">
+        <v>6.6</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="2:6" ht="43.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="3">
+        <v>6.7</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="2:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="3">
+        <v>4.8</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="3">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="14">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="19" ht="29.4" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" ht="28.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" ht="31.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" ht="43.8" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" ht="28.8" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" ht="29.4" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" ht="44.4" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" ht="58.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" ht="36" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" ht="41.4" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" ht="44.4" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" ht="31.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" ht="25.8" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" ht="35.4" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" ht="31.8" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" ht="28.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" ht="27.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" ht="43.8" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" ht="31.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" ht="31.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" ht="35.4" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" ht="30.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" ht="43.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" ht="32.4" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" ht="33" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" ht="39.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" ht="28.8" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" ht="29.4" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" ht="43.8" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" ht="31.8" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" ht="48.6" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE7621E9-64D4-400C-8AFE-E686CE4372EC}">
+  <dimension ref="B2:F85"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.5546875" customWidth="1"/>
+    <col min="4" max="4" width="25.33203125" customWidth="1"/>
+    <col min="5" max="5" width="35.44140625" customWidth="1"/>
+    <col min="6" max="6" width="22" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="8">
+        <v>7</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+    </row>
+    <row r="4" spans="2:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="3">
+        <v>7.1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="2:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="3">
+        <v>7.2</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="2:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="3">
+        <v>7.3</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="2:6" ht="52.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="3">
+        <v>7.4</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="2:6" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="3">
+        <v>7.5</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="2:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="3">
+        <v>7.6</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="43.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="3">
+        <v>7.7</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="2:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="3">
+        <v>7.8</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F11" s="15">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="3">
+        <v>7.9</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="2:6" ht="46.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="14">
+        <v>7.1</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="19" ht="29.4" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" ht="28.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" ht="31.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" ht="43.8" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" ht="28.8" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" ht="29.4" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" ht="44.4" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" ht="58.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" ht="36" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" ht="41.4" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" ht="44.4" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" ht="31.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" ht="25.8" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" ht="35.4" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" ht="31.8" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" ht="28.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" ht="27.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" ht="43.8" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" ht="31.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" ht="31.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" ht="35.4" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" ht="30.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" ht="43.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" ht="32.4" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" ht="33" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" ht="39.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" ht="28.8" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" ht="29.4" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" ht="43.8" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" ht="31.8" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" ht="48.6" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F504B256-1E5E-4803-899F-B7D2FD34E66D}">
+  <dimension ref="B2:F85"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27:F94"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.5546875" customWidth="1"/>
+    <col min="4" max="4" width="25.33203125" customWidth="1"/>
+    <col min="5" max="5" width="35.44140625" customWidth="1"/>
+    <col min="6" max="6" width="22" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="8">
+        <v>8</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+    </row>
+    <row r="4" spans="2:6" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="3">
+        <v>8.1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="2:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="3">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F5" s="11">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="3">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="2:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="3">
+        <v>8.4</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="2:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="3">
+        <v>8.5</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F8" s="11">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="3">
+        <v>8.6</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="11"/>
+    </row>
+    <row r="10" spans="2:6" ht="43.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="2:6" ht="27" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" ht="29.4" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" ht="28.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" ht="31.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" ht="43.8" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" ht="28.8" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" ht="29.4" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" ht="44.4" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" ht="58.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" ht="36" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" ht="41.4" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" ht="44.4" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" ht="31.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" ht="25.8" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" ht="35.4" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" ht="31.8" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" ht="28.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" ht="27.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" ht="43.8" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" ht="31.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" ht="31.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" ht="35.4" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" ht="30.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" ht="43.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" ht="32.4" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" ht="33" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" ht="39.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" ht="28.8" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" ht="29.4" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" ht="43.8" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" ht="31.8" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" ht="48.6" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51C91288-70B3-428A-906E-C603E2370B30}">
+  <dimension ref="B2:F85"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.5546875" customWidth="1"/>
+    <col min="4" max="4" width="25.33203125" customWidth="1"/>
+    <col min="5" max="5" width="35.44140625" customWidth="1"/>
+    <col min="6" max="6" width="22" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="8">
+        <v>9</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+    </row>
+    <row r="4" spans="2:6" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="3">
+        <v>9.1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="2:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="3">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F5" s="11"/>
+    </row>
+    <row r="6" spans="2:6" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="3">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="2:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="3">
+        <v>9.4</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="2:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="3">
+        <v>9.5</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F8" s="11"/>
+    </row>
+    <row r="9" spans="2:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="3">
+        <v>9.6</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="11"/>
+    </row>
+    <row r="10" spans="2:6" ht="43.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="2:6" ht="27" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" ht="29.4" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" ht="28.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" ht="31.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" ht="43.8" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" ht="28.8" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" ht="29.4" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" ht="44.4" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" ht="58.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" ht="36" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" ht="41.4" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" ht="44.4" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" ht="31.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" ht="25.8" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" ht="35.4" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" ht="31.8" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" ht="28.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" ht="27.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" ht="43.8" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" ht="31.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" ht="31.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" ht="35.4" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" ht="30.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" ht="43.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" ht="32.4" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" ht="33" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" ht="39.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" ht="28.8" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" ht="29.4" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" ht="43.8" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" ht="31.8" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" ht="48.6" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1449625-E7E0-40C0-ACC1-12FCA5F5F54F}">
+  <dimension ref="B2:F85"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.5546875" customWidth="1"/>
+    <col min="4" max="4" width="25.33203125" customWidth="1"/>
+    <col min="5" max="5" width="35.44140625" customWidth="1"/>
+    <col min="6" max="6" width="22" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="8">
+        <v>10</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+    </row>
+    <row r="4" spans="2:6" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="3">
+        <v>10.1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="2:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="3">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F5" s="11"/>
+    </row>
+    <row r="6" spans="2:6" ht="52.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="3">
+        <v>10.3</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="2:6" ht="50.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="3">
+        <v>10.4</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="2:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="3">
+        <v>10.5</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F8" s="11"/>
+    </row>
+    <row r="9" spans="2:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="3">
+        <v>10.6</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="11"/>
+    </row>
+    <row r="10" spans="2:6" ht="43.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="2:6" ht="27" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" ht="29.4" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" ht="28.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" ht="31.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" ht="43.8" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" ht="28.8" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" ht="29.4" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" ht="44.4" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" ht="58.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" ht="36" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" ht="41.4" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" ht="44.4" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" ht="31.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" ht="25.8" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" ht="35.4" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" ht="31.8" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" ht="28.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" ht="27.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" ht="43.8" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" ht="31.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" ht="31.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" ht="35.4" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" ht="30.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" ht="43.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" ht="32.4" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" ht="33" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" ht="39.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" ht="28.8" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" ht="29.4" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" ht="43.8" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" ht="31.8" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" ht="48.6" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test cases.xlsx
+++ b/Test cases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thi Binh\Desktop\BaoCao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F33278F-738A-45AC-94D1-69A9D0CB76E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58E978F9-A5FB-450F-BD38-4E0C6D907FBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="0" showVerticalScroll="0" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView showHorizontalScroll="0" showVerticalScroll="0" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCase" sheetId="17" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="253">
   <si>
     <t>Thiết kế</t>
   </si>
@@ -552,6 +552,277 @@
   </si>
   <si>
     <t>Thống kê</t>
+  </si>
+  <si>
+    <t>CÁC BƯỚC THỰC HIỆN</t>
+  </si>
+  <si>
+    <t>KẾT QUẢ ĐẠT ĐƯỢC</t>
+  </si>
+  <si>
+    <t>NGÀY TẠO</t>
+  </si>
+  <si>
+    <t>NGƯỜI TẠO</t>
+  </si>
+  <si>
+    <t>NGÀY CẬP NHẬT</t>
+  </si>
+  <si>
+    <t>Điền sai thông tin đăng nhập (sai username/ sai mật khẩu)</t>
+  </si>
+  <si>
+    <t>Điền đầy đủ và chính xác thông tin đăng nhập được cấp</t>
+  </si>
+  <si>
+    <t>Đăng nhập vào hệ thống với quyền User</t>
+  </si>
+  <si>
+    <t>Đăng nhập vào hệ thống với tài khoản là quyền Admin</t>
+  </si>
+  <si>
+    <t>Click vào quản lý kho trên thành navbar</t>
+  </si>
+  <si>
+    <t>Click vào quên mật khẩu mở form quên mật khẩu và điền sai thông tin email của tài khoản đã đăng ký</t>
+  </si>
+  <si>
+    <t>Điền email đúng với email đã đăng ký cho tài khoản</t>
+  </si>
+  <si>
+    <t>Thông báo lỗi "đăng nhập không thành công"</t>
+  </si>
+  <si>
+    <t>Yêu cầu nhập, báo lỗi "đăng nhập không thành công"</t>
+  </si>
+  <si>
+    <t>Thông báo "đăng nhập thành công", mở giao diện chính của hệ thống</t>
+  </si>
+  <si>
+    <t>Thông báo "không tìm thấy địa chỉ email"</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Nhóm 9</t>
+  </si>
+  <si>
+    <t>1. Click vào quản lí kho trên menu</t>
+  </si>
+  <si>
+    <t>Table Kho</t>
+  </si>
+  <si>
+    <t>Hiển thị danh sách các kho đã được lưu trong hệ thống</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thông báo "Tạo kho thất bại!" nếu trùng </t>
+  </si>
+  <si>
+    <t>Thông báo "Tạo kho thành công!" và lưu dữ liệu vào csdl</t>
+  </si>
+  <si>
+    <t>Thông báo "Tạo kho thất bại!"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thông báo "Tạo kho thành công!" </t>
+  </si>
+  <si>
+    <t>Thông báo "Vui lòng nhập đầy đủ thông tin kho!"</t>
+  </si>
+  <si>
+    <t>1. Click vào button tạo kho để mở form tạo kho                                 2. Điền thông tin trùng với kho đã tạo                                              3. Click button xác nhận</t>
+  </si>
+  <si>
+    <t>1. Click vào button tạo kho để mở form tạo kho                                 2. Điền thông tin đúng khác với kho đã tạo                                              3. Click button xác nhận</t>
+  </si>
+  <si>
+    <t>1. Click vào button tạo kho để mở form tạo kho                                 2. Để trống thông tin                                              3. Click button xác nhận</t>
+  </si>
+  <si>
+    <t>1. Click vào button sửa kho để mở form sửa kho                                 2. Chỉnh sửa thông tin kho                                              3. Click button xác nhận</t>
+  </si>
+  <si>
+    <t>Thông báo "sửa thông tin thành công!" (nếu không trùng thông tin với các kho đã tạo)/ Thông báo "Sửa kho không thành công!"</t>
+  </si>
+  <si>
+    <t>Thông báo "Sửa kho thành công"</t>
+  </si>
+  <si>
+    <t>1. Click vào button chi tiết kho để xem chi tiết vị trí trong kho</t>
+  </si>
+  <si>
+    <t>Danh sách các vị trí đã được tạo trong kho</t>
+  </si>
+  <si>
+    <t>1. Click vào button chi tiết kho để xem chi tiết vị trí trong kho           2. Click Button tạo vị trí kho để mở form thêm vị trí mới cho kho   3. Nhập thông tin cho vị trí           4. Click xác nhận để tạo vị trí</t>
+  </si>
+  <si>
+    <t>lưu thông tin vị trí vào hệ thống và hiển thị lên giao diện chi tiết kho những vị trí trùng sẽ thông báo lỗi</t>
+  </si>
+  <si>
+    <t>(Cot: 9, Hang: 9, Ke: 9, Soluong: 200)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Thông báo "tạo vị trí thành công!"                                    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Vị trí trùng chưa thông báo lỗi</t>
+    </r>
+  </si>
+  <si>
+    <t>1. Click button xóa để mở form xác nhận xóa thông tin kho</t>
+  </si>
+  <si>
+    <t>Click vào quản lí danh mục trên menu</t>
+  </si>
+  <si>
+    <t>1. Click vào button tạo danh mục    2. Click button xác nhận</t>
+  </si>
+  <si>
+    <t>1. Click vào button tạo danh mục            2. Thêm dữ liệu vào form          3. Click button xác nhận</t>
+  </si>
+  <si>
+    <t>1. Click vào button xóa danh mục                      2. Click button xác nhận</t>
+  </si>
+  <si>
+    <t>Thông báo "tạo không thành công"</t>
+  </si>
+  <si>
+    <t>1. Click vào button sửa danh mục                                        2. thay đổi dữ liệu                    3. Click button xác nhận</t>
+  </si>
+  <si>
+    <t>Thông báo "thay đổi thành công"</t>
+  </si>
+  <si>
+    <t>Thông báo "Xóa thành công"</t>
+  </si>
+  <si>
+    <t>Thông báo "tạo thành công"</t>
+  </si>
+  <si>
+    <t>Click vào quản lí nhà cung cấp trên menu</t>
+  </si>
+  <si>
+    <t>hiển thị danh sách nhà cung cấp lên giao diện</t>
+  </si>
+  <si>
+    <t>1. Click vào button tạo danh mục             2. Click button xác nhận</t>
+  </si>
+  <si>
+    <t>1. Click vào button tạo danh mục            2. Thêm dữ liệu vào form            3. Click button xác nhận</t>
+  </si>
+  <si>
+    <t>1. Click vào button sửa danh mục                                        2. thay đổi dữ liệu                        3. Click button xác nhận</t>
+  </si>
+  <si>
+    <t>Hiển thị barcode lên giao diện</t>
+  </si>
+  <si>
+    <t>Click vào quản lí sản phẩm trên menu</t>
+  </si>
+  <si>
+    <t>1. Click vào button tạo sản phẩm                    2. Click button xác nhận</t>
+  </si>
+  <si>
+    <t>hiển thị danh sách sản phẩm trên giao diện</t>
+  </si>
+  <si>
+    <t>Thông báo "Vui lòng nhập đầy đủ thông tin"</t>
+  </si>
+  <si>
+    <t>1. Click vào button tạo sản phẩm              2. Thêm dữ liệu vào form                    3. Click button xác nhận</t>
+  </si>
+  <si>
+    <t>Thông báo "trùng tên/email/sđt"</t>
+  </si>
+  <si>
+    <t>Thông báo "tạo sản phẩm thành công"</t>
+  </si>
+  <si>
+    <t>Click vào button chi tiết sản phẩm</t>
+  </si>
+  <si>
+    <t>Hiển thị chi tiết sản phẩm</t>
+  </si>
+  <si>
+    <t>1. Click vào button sửa sản phẩm              2. Thêm dữ liệu vào form                    3. Click button xác nhận</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Chỉnh sửa được thông tin    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>cần thêm hiển thị thông tin sản phẩm</t>
+    </r>
+  </si>
+  <si>
+    <t>Khi ngày hiện tại lớn hơn hạn sử dụng thì trạng thái sản phẩm là hết hạn và ngược lại là còn hạn</t>
+  </si>
+  <si>
+    <t>1.thêm sản phẩm quá ngày hiện tại</t>
+  </si>
+  <si>
+    <t>("Bánh", "2023-08-20", "2023-08-22", "Thực Phẩm", "Quận 9 Cot 8, Hang 8, Ke 8 )</t>
+  </si>
+  <si>
+    <t>Trạng thái sản phẩm hiển thị hết hạn</t>
+  </si>
+  <si>
+    <t>Thêm đầy đủ thông tin sản phẩm</t>
+  </si>
+  <si>
+    <t>Click vào quản lí nhân sự trên menu</t>
+  </si>
+  <si>
+    <t>hiển thị danh sách nhân sự trên giao diện</t>
+  </si>
+  <si>
+    <t>Click vào tạo nhân viên và click button xác nhận</t>
+  </si>
+  <si>
+    <t>Thông báo "vui lòng nhập thông tin!"</t>
+  </si>
+  <si>
+    <t>Thông báo "tài khoản đã được tạo!"</t>
+  </si>
+  <si>
+    <t>Chưa hoàn thiện</t>
+  </si>
+  <si>
+    <t>Click vào quản lí phiếu nhập</t>
+  </si>
+  <si>
+    <t>hiển thị danh sách phiếu nhập</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thông báo "tạo phiếu nhập thành công" </t>
+  </si>
+  <si>
+    <t>Cần xem lại Database và xử lí (khi chọn sản phẩm giống nhau thì số lượng sản phẩm không cộng lại mà thành 2 sản phẩm riêng biệt)</t>
+  </si>
+  <si>
+    <t>kiểm tra số lượng sản phẩm trong kho khi xác nhận tạo phiếu</t>
+  </si>
+  <si>
+    <t>Click vào quản lí phiếu xuất</t>
+  </si>
+  <si>
+    <t>Fixing</t>
   </si>
 </sst>
 </file>
@@ -561,7 +832,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -607,8 +878,18 @@
       <color theme="10"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -624,6 +905,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -672,7 +971,7 @@
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -709,6 +1008,106 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2397,10 +2796,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC2B8E0D-D2E7-4C96-B68A-91E22B34243F}">
-  <dimension ref="B2:F85"/>
+  <dimension ref="B2:K85"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2409,10 +2808,14 @@
     <col min="3" max="3" width="24.5546875" customWidth="1"/>
     <col min="4" max="4" width="25.33203125" customWidth="1"/>
     <col min="5" max="5" width="35.44140625" customWidth="1"/>
-    <col min="6" max="6" width="22" customWidth="1"/>
+    <col min="6" max="6" width="29.5546875" customWidth="1"/>
+    <col min="7" max="7" width="19.6640625" customWidth="1"/>
+    <col min="8" max="8" width="11.88671875" customWidth="1"/>
+    <col min="9" max="10" width="11.5546875" customWidth="1"/>
+    <col min="11" max="11" width="16.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
@@ -2420,175 +2823,325 @@
         <v>3</v>
       </c>
       <c r="D2" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I2" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="8">
         <v>11</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="D3" s="7"/>
+      <c r="D3" s="6"/>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
-    </row>
-    <row r="4" spans="2:6" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+    </row>
+    <row r="4" spans="2:11" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="3">
         <v>11.1</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="2"/>
+      <c r="E4" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="F4" s="3"/>
-    </row>
-    <row r="5" spans="2:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G4" s="2"/>
+      <c r="H4" s="31" t="s">
+        <v>186</v>
+      </c>
+      <c r="I4" s="22">
+        <v>45179</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="K4" s="22">
+        <v>45270</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="3">
         <v>11.2</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="2"/>
+      <c r="E5" s="17" t="s">
         <v>149</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="F5" s="11"/>
-    </row>
-    <row r="6" spans="2:6" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G5" s="2"/>
+      <c r="H5" s="31" t="s">
+        <v>186</v>
+      </c>
+      <c r="I5" s="22">
+        <v>45179</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="K5" s="22">
+        <v>45270</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="3">
         <v>11.3</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="2"/>
+      <c r="E6" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="F6" s="3"/>
-    </row>
-    <row r="7" spans="2:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G6" s="2"/>
+      <c r="H6" s="31" t="s">
+        <v>186</v>
+      </c>
+      <c r="I6" s="22">
+        <v>45179</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="K6" s="22">
+        <v>45270</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="3">
         <v>11.4</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="2"/>
+      <c r="E7" s="18" t="s">
         <v>151</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="F7" s="3"/>
-    </row>
-    <row r="8" spans="2:6" ht="43.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G7" s="2"/>
+      <c r="H7" s="31" t="s">
+        <v>186</v>
+      </c>
+      <c r="I7" s="22">
+        <v>45179</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="K7" s="22">
+        <v>45270</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" ht="43.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="3">
         <v>11.5</v>
       </c>
       <c r="C8" s="16" t="s">
         <v>148</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="20"/>
+      <c r="E8" s="18" t="s">
         <v>152</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="F8" s="11"/>
-    </row>
-    <row r="9" spans="2:6" ht="43.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G8" s="20"/>
+      <c r="H8" s="31" t="s">
+        <v>186</v>
+      </c>
+      <c r="I8" s="22">
+        <v>45179</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="K8" s="22">
+        <v>45270</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" ht="43.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="3">
         <v>11.6</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="3"/>
+      <c r="E9" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="F9" s="11"/>
-    </row>
-    <row r="10" spans="2:6" ht="43.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G9" s="20"/>
+      <c r="H9" s="31" t="s">
+        <v>186</v>
+      </c>
+      <c r="I9" s="22">
+        <v>45179</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="K9" s="22">
+        <v>45270</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" ht="43.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="3">
         <v>11.7</v>
       </c>
       <c r="C10" s="16" t="s">
         <v>160</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="2"/>
+      <c r="E10" s="18" t="s">
         <v>161</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="F10" s="11"/>
-    </row>
-    <row r="11" spans="2:6" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G10" s="2"/>
+      <c r="H10" s="31" t="s">
+        <v>186</v>
+      </c>
+      <c r="I10" s="22">
+        <v>45179</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="K10" s="22">
+        <v>45270</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="3">
         <v>11.8</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="2"/>
+      <c r="E11" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="F11" s="11"/>
-    </row>
-    <row r="12" spans="2:6" ht="50.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G11" s="20"/>
+      <c r="H11" s="31" t="s">
+        <v>186</v>
+      </c>
+      <c r="I11" s="22">
+        <v>45179</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="K11" s="22">
+        <v>45270</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" ht="50.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <v>11.9</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="2"/>
+      <c r="E12" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="F12" s="11"/>
-    </row>
-    <row r="13" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G12" s="20"/>
+      <c r="H12" s="31" t="s">
+        <v>186</v>
+      </c>
+      <c r="I12" s="22">
+        <v>45179</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="K12" s="22">
+        <v>45270</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="14">
         <v>11.1</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="20"/>
+      <c r="E13" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="F13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F13" s="11"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="31" t="s">
+        <v>186</v>
+      </c>
+      <c r="I13" s="22">
+        <v>45179</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="K13" s="22">
+        <v>45270</v>
+      </c>
     </row>
     <row r="19" ht="29.4" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="20" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2634,8 +3187,8 @@
     <row r="85" ht="48.6" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D5" r:id="rId1" xr:uid="{A4A7C03A-37A2-47DA-9C92-F7F7F36520C1}"/>
-    <hyperlink ref="D6" r:id="rId2" xr:uid="{E195BA97-F9BC-47EA-8F9B-93C94FD2AADD}"/>
+    <hyperlink ref="E5" r:id="rId1" xr:uid="{F84046FC-8979-4166-918D-9831DF0703CF}"/>
+    <hyperlink ref="E6" r:id="rId2" xr:uid="{085AE1E2-76D3-4754-9D46-4F8F82F347A4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId3"/>
@@ -2644,10 +3197,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{835B7B45-84FB-4C82-B63D-C7A027E23B54}">
-  <dimension ref="B2:F85"/>
+  <dimension ref="B2:K85"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="H4" sqref="H4:K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2656,10 +3209,15 @@
     <col min="3" max="3" width="24.5546875" customWidth="1"/>
     <col min="4" max="4" width="25.33203125" customWidth="1"/>
     <col min="5" max="5" width="35.44140625" customWidth="1"/>
-    <col min="6" max="6" width="22" customWidth="1"/>
+    <col min="6" max="6" width="35.109375" customWidth="1"/>
+    <col min="7" max="7" width="31.88671875" customWidth="1"/>
+    <col min="8" max="8" width="13.5546875" customWidth="1"/>
+    <col min="9" max="9" width="15" customWidth="1"/>
+    <col min="10" max="10" width="13.6640625" customWidth="1"/>
+    <col min="11" max="11" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
@@ -2667,16 +3225,31 @@
         <v>3</v>
       </c>
       <c r="D2" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I2" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="8">
         <v>1</v>
       </c>
@@ -2686,8 +3259,13 @@
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
-    </row>
-    <row r="4" spans="2:6" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+    </row>
+    <row r="4" spans="2:11" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="9">
         <v>1.1000000000000001</v>
       </c>
@@ -2695,57 +3273,121 @@
         <v>7</v>
       </c>
       <c r="D4" s="2"/>
-      <c r="E4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="2"/>
-    </row>
-    <row r="5" spans="2:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E4" s="2"/>
+      <c r="F4" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="H4" s="23" t="s">
+        <v>186</v>
+      </c>
+      <c r="I4" s="22">
+        <v>45179</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="K4" s="22">
+        <v>45270</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="9">
         <v>1.2</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="2"/>
-    </row>
-    <row r="6" spans="2:6" ht="25.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F5" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="H5" s="23" t="s">
+        <v>186</v>
+      </c>
+      <c r="I5" s="22">
+        <v>45179</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="K5" s="22">
+        <v>45270</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="9">
         <v>1.3</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F6" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="H6" s="23" t="s">
+        <v>186</v>
+      </c>
+      <c r="I6" s="22">
+        <v>45179</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="K6" s="22">
+        <v>45270</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="9">
         <v>1.4</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="2"/>
+      <c r="E7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="F7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="23" t="s">
+        <v>186</v>
+      </c>
+      <c r="I7" s="22">
+        <v>45179</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="K7" s="22">
+        <v>45270</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="8">
         <v>2</v>
       </c>
@@ -2755,64 +3397,135 @@
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
-    </row>
-    <row r="9" spans="2:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+    </row>
+    <row r="9" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="10">
         <v>2.1</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="1" t="s">
+      <c r="D9" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="3"/>
-    </row>
-    <row r="10" spans="2:6" ht="43.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="23" t="s">
+        <v>186</v>
+      </c>
+      <c r="I9" s="22">
+        <v>45179</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="K9" s="22">
+        <v>45270</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" ht="43.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="10">
         <v>2.2000000000000002</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1" t="s">
+      <c r="D10" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="3"/>
-    </row>
-    <row r="11" spans="2:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" s="23" t="s">
+        <v>186</v>
+      </c>
+      <c r="I10" s="22">
+        <v>45179</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="K10" s="22">
+        <v>45270</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="10">
         <v>2.2999999999999998</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="11"/>
-    </row>
-    <row r="12" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H11" s="23" t="s">
+        <v>186</v>
+      </c>
+      <c r="I11" s="22">
+        <v>45179</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="K11" s="22">
+        <v>45270</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="10">
         <v>2.2999999999999998</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="3"/>
+      <c r="E12" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="F12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="3"/>
-    </row>
-    <row r="13" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" s="23" t="s">
+        <v>186</v>
+      </c>
+      <c r="I12" s="22">
+        <v>45179</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="K12" s="22">
+        <v>45270</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="8">
         <v>3</v>
       </c>
@@ -2822,8 +3535,13 @@
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
-    </row>
-    <row r="14" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+    </row>
+    <row r="14" spans="2:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
         <v>3.1</v>
       </c>
@@ -2831,61 +3549,125 @@
         <v>7</v>
       </c>
       <c r="D14" s="3"/>
-      <c r="E14" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F14" s="3"/>
-    </row>
-    <row r="15" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E14" s="3"/>
+      <c r="F14" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="H14" s="23" t="s">
+        <v>186</v>
+      </c>
+      <c r="I14" s="22">
+        <v>45179</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="K14" s="22">
+        <v>45270</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="3">
         <v>3.2</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="E15" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F15" s="3"/>
-    </row>
-    <row r="16" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F15" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="H15" s="23" t="s">
+        <v>186</v>
+      </c>
+      <c r="I15" s="22">
+        <v>45179</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="K15" s="22">
+        <v>45270</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="3">
         <v>3.3</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="E16" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="F16" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F16" s="3"/>
-    </row>
-    <row r="17" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G16" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="H16" s="23" t="s">
+        <v>186</v>
+      </c>
+      <c r="I16" s="22">
+        <v>45179</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="K16" s="22">
+        <v>45270</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="3">
         <v>3.4</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="3"/>
+      <c r="E17" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="F17" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F17" s="3"/>
-    </row>
-    <row r="19" spans="2:6" ht="29.4" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="2:6" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="2:6" ht="28.2" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="2:6" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="G17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" s="23" t="s">
+        <v>186</v>
+      </c>
+      <c r="I17" s="22">
+        <v>45179</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="K17" s="22">
+        <v>45270</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" ht="29.4" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="2:11" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="2:11" ht="28.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="2:11" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="34" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="37" ht="31.2" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="39" ht="43.8" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2924,6 +3706,7 @@
     <row r="84" ht="31.8" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="85" ht="48.6" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -2931,22 +3714,27 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D75EF832-73A8-47A1-BB6C-94AC153CCAFF}">
-  <dimension ref="B2:F85"/>
+  <dimension ref="B2:K85"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="6.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.5546875" customWidth="1"/>
-    <col min="4" max="4" width="25.33203125" customWidth="1"/>
+    <col min="4" max="4" width="28.44140625" customWidth="1"/>
     <col min="5" max="5" width="35.44140625" customWidth="1"/>
-    <col min="6" max="6" width="22" customWidth="1"/>
+    <col min="6" max="6" width="38.21875" customWidth="1"/>
+    <col min="7" max="7" width="25.6640625" customWidth="1"/>
+    <col min="8" max="8" width="16.88671875" customWidth="1"/>
+    <col min="9" max="9" width="17.109375" customWidth="1"/>
+    <col min="10" max="10" width="16.44140625" customWidth="1"/>
+    <col min="11" max="11" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
@@ -2954,40 +3742,79 @@
         <v>3</v>
       </c>
       <c r="D2" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I2" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="8">
         <v>4</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="7"/>
+      <c r="D3" s="6"/>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
-    </row>
-    <row r="4" spans="2:6" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+    </row>
+    <row r="4" spans="2:11" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="3">
         <v>4.0999999999999996</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="F4" s="3"/>
-    </row>
-    <row r="5" spans="2:6" ht="46.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D4" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="F4" s="25" t="s">
+        <v>190</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="H4" s="31" t="s">
+        <v>186</v>
+      </c>
+      <c r="I4" s="22">
+        <v>45179</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="K4" s="22">
+        <v>45270</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" ht="89.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="3">
         <v>4.2</v>
       </c>
@@ -2995,14 +3822,31 @@
         <v>37</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F5" s="3"/>
-    </row>
-    <row r="6" spans="2:6" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F5" s="24" t="s">
+        <v>191</v>
+      </c>
+      <c r="G5" s="24" t="s">
+        <v>193</v>
+      </c>
+      <c r="H5" s="31" t="s">
+        <v>186</v>
+      </c>
+      <c r="I5" s="22">
+        <v>45179</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="K5" s="22">
+        <v>45270</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="3">
         <v>4.3</v>
       </c>
@@ -3010,109 +3854,237 @@
         <v>38</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F6" s="3"/>
-    </row>
-    <row r="7" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F6" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="G6" s="24" t="s">
+        <v>194</v>
+      </c>
+      <c r="H6" s="31" t="s">
+        <v>186</v>
+      </c>
+      <c r="I6" s="22">
+        <v>45179</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="K6" s="22">
+        <v>45270</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="3">
         <v>4.4000000000000004</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="2" t="s">
+      <c r="D7" s="24" t="s">
+        <v>198</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="3"/>
-    </row>
-    <row r="8" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G7" s="24" t="s">
+        <v>195</v>
+      </c>
+      <c r="H7" s="31" t="s">
+        <v>186</v>
+      </c>
+      <c r="I7" s="22">
+        <v>45179</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="K7" s="22">
+        <v>45270</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="3">
         <v>4.5</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1" t="s">
+      <c r="D8" s="20"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="F8" s="3"/>
-    </row>
-    <row r="9" spans="2:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G8" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="H8" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" s="22">
+        <v>45179</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="K8" s="22">
+        <v>45270</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="3">
         <v>4.5999999999999996</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F9" s="3"/>
-    </row>
-    <row r="10" spans="2:6" ht="43.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D9" s="24" t="s">
+        <v>199</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="24" t="s">
+        <v>200</v>
+      </c>
+      <c r="G9" s="29" t="s">
+        <v>201</v>
+      </c>
+      <c r="H9" s="31" t="s">
+        <v>186</v>
+      </c>
+      <c r="I9" s="22">
+        <v>45179</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="K9" s="22">
+        <v>45270</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" ht="43.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="3">
         <v>4.7</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="24" t="s">
+        <v>202</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="F10" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="F10" s="3"/>
-    </row>
-    <row r="11" spans="2:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G10" s="29" t="s">
+        <v>203</v>
+      </c>
+      <c r="H10" s="31" t="s">
+        <v>186</v>
+      </c>
+      <c r="I10" s="22">
+        <v>45179</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="K10" s="22">
+        <v>45270</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" ht="93" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="3">
         <v>4.8</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F11" s="3"/>
-    </row>
-    <row r="12" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D11" s="24" t="s">
+        <v>204</v>
+      </c>
+      <c r="E11" s="26" t="s">
+        <v>206</v>
+      </c>
+      <c r="F11" s="24" t="s">
+        <v>205</v>
+      </c>
+      <c r="G11" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="H11" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" s="22">
+        <v>45179</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="K11" s="22">
+        <v>45270</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <v>4.9000000000000004</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="1" t="s">
+      <c r="D12" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="F12" s="3"/>
-    </row>
-    <row r="13" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G12" s="20"/>
+      <c r="H12" s="31" t="s">
+        <v>186</v>
+      </c>
+      <c r="I12" s="22">
+        <v>45179</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="K12" s="22">
+        <v>45270</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="14">
         <v>4.0999999999999996</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="20"/>
+      <c r="E13" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="F13" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="F13" s="3"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="31" t="s">
+        <v>186</v>
+      </c>
+      <c r="I13" s="22">
+        <v>45179</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="K13" s="22">
+        <v>45270</v>
+      </c>
     </row>
     <row r="19" ht="29.4" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="20" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3164,22 +4136,27 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5617F6B4-A0D4-4FE0-B1DD-1589E8D2418E}">
-  <dimension ref="B2:F85"/>
+  <dimension ref="B2:K85"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:F94"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="6.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.5546875" customWidth="1"/>
-    <col min="4" max="4" width="25.33203125" customWidth="1"/>
-    <col min="5" max="5" width="35.44140625" customWidth="1"/>
-    <col min="6" max="6" width="22" customWidth="1"/>
+    <col min="4" max="4" width="27.5546875" customWidth="1"/>
+    <col min="5" max="5" width="23.77734375" customWidth="1"/>
+    <col min="6" max="6" width="36.109375" customWidth="1"/>
+    <col min="7" max="7" width="20.77734375" customWidth="1"/>
+    <col min="8" max="8" width="13.21875" customWidth="1"/>
+    <col min="9" max="9" width="11.88671875" customWidth="1"/>
+    <col min="10" max="10" width="12.88671875" customWidth="1"/>
+    <col min="11" max="11" width="15.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
@@ -3187,112 +4164,228 @@
         <v>3</v>
       </c>
       <c r="D2" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I2" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="8">
         <v>5</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="D3" s="7"/>
+      <c r="D3" s="6"/>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
-    </row>
-    <row r="4" spans="2:6" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+    </row>
+    <row r="4" spans="2:11" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="3">
         <v>5.0999999999999996</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="F4" s="3"/>
-    </row>
-    <row r="5" spans="2:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G4" s="2"/>
+      <c r="H4" s="31" t="s">
+        <v>186</v>
+      </c>
+      <c r="I4" s="22">
+        <v>45179</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="K4" s="22">
+        <v>45270</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="3">
         <v>5.2</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="2" t="s">
+      <c r="D5" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="F5" s="3"/>
-    </row>
-    <row r="6" spans="2:6" ht="25.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G5" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="H5" s="31" t="s">
+        <v>186</v>
+      </c>
+      <c r="I5" s="22">
+        <v>45179</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="K5" s="22">
+        <v>45270</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" ht="46.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="3">
         <v>5.3</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="F6" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="F6" s="3"/>
-    </row>
-    <row r="7" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G6" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="H6" s="31" t="s">
+        <v>186</v>
+      </c>
+      <c r="I6" s="22">
+        <v>45179</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="K6" s="22">
+        <v>45270</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="3">
         <v>5.4</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="2" t="s">
+      <c r="D7" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="F7" s="3"/>
-    </row>
-    <row r="8" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G7" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="H7" s="31" t="s">
+        <v>186</v>
+      </c>
+      <c r="I7" s="22">
+        <v>45179</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="K7" s="22">
+        <v>45270</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" ht="52.8" x14ac:dyDescent="0.25">
       <c r="B8" s="3">
         <v>5.5</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="1" t="s">
+      <c r="D8" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F8" s="3"/>
-    </row>
-    <row r="9" spans="2:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G8" s="29" t="s">
+        <v>215</v>
+      </c>
+      <c r="H8" s="31" t="s">
+        <v>186</v>
+      </c>
+      <c r="I8" s="22">
+        <v>45179</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="K8" s="22">
+        <v>45270</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="3">
         <v>5.6</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="3"/>
+      <c r="E9" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="F9" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="F9" s="3"/>
-    </row>
-    <row r="10" spans="2:6" ht="43.2" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="2:6" ht="27" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="31" t="s">
+        <v>186</v>
+      </c>
+      <c r="I9" s="22">
+        <v>45179</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="K9" s="22">
+        <v>45270</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" ht="26.4" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="2:11" ht="27" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="19" ht="29.4" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="20" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="23" ht="28.2" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3343,22 +4436,27 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{994022E8-1F00-42D2-88B8-BC2EDF3A9438}">
-  <dimension ref="B2:F85"/>
+  <dimension ref="B2:K85"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D4" sqref="D4:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="6.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.5546875" customWidth="1"/>
-    <col min="4" max="4" width="25.33203125" customWidth="1"/>
+    <col min="4" max="4" width="27.109375" customWidth="1"/>
     <col min="5" max="5" width="35.44140625" customWidth="1"/>
-    <col min="6" max="6" width="22" customWidth="1"/>
+    <col min="6" max="6" width="43.21875" customWidth="1"/>
+    <col min="7" max="7" width="20.44140625" customWidth="1"/>
+    <col min="8" max="8" width="14.6640625" customWidth="1"/>
+    <col min="9" max="9" width="12" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" customWidth="1"/>
+    <col min="11" max="11" width="16.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
@@ -3366,55 +4464,107 @@
         <v>3</v>
       </c>
       <c r="D2" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I2" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="8">
         <v>6</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D3" s="7"/>
+      <c r="D3" s="6"/>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
-    </row>
-    <row r="4" spans="2:6" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+    </row>
+    <row r="4" spans="2:11" ht="51.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="3">
         <v>6.1</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="F4" s="3"/>
-    </row>
-    <row r="5" spans="2:6" ht="46.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G4" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="H4" s="31" t="s">
+        <v>186</v>
+      </c>
+      <c r="I4" s="22">
+        <v>45179</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="K4" s="22">
+        <v>45270</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" ht="46.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="3">
         <v>6.2</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="2" t="s">
+      <c r="D5" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="F5" s="3"/>
-    </row>
-    <row r="6" spans="2:6" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G5" s="2"/>
+      <c r="H5" s="31" t="s">
+        <v>186</v>
+      </c>
+      <c r="I5" s="22">
+        <v>45179</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="K5" s="22">
+        <v>45270</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="3">
         <v>6.3</v>
       </c>
@@ -3422,14 +4572,29 @@
         <v>75</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="F6" s="3"/>
-    </row>
-    <row r="7" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G6" s="2"/>
+      <c r="H6" s="31" t="s">
+        <v>186</v>
+      </c>
+      <c r="I6" s="22">
+        <v>45179</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="K6" s="22">
+        <v>45270</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="3">
         <v>6.4</v>
       </c>
@@ -3437,27 +4602,57 @@
         <v>80</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="F7" s="3"/>
-    </row>
-    <row r="8" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G7" s="2"/>
+      <c r="H7" s="31" t="s">
+        <v>186</v>
+      </c>
+      <c r="I7" s="22">
+        <v>45179</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="K7" s="22">
+        <v>45270</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" ht="43.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="3">
         <v>6.5</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="1" t="s">
+      <c r="D8" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="F8" s="3"/>
-    </row>
-    <row r="9" spans="2:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G8" s="20"/>
+      <c r="H8" s="31" t="s">
+        <v>186</v>
+      </c>
+      <c r="I8" s="22">
+        <v>45179</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="K8" s="22">
+        <v>45270</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="3">
         <v>6.6</v>
       </c>
@@ -3465,69 +4660,53 @@
         <v>78</v>
       </c>
       <c r="D9" s="3"/>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="3"/>
+      <c r="F9" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="F9" s="3"/>
-    </row>
-    <row r="10" spans="2:6" ht="43.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G9" s="20"/>
+      <c r="H9" s="31" t="s">
+        <v>186</v>
+      </c>
+      <c r="I9" s="22">
+        <v>45179</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="K9" s="22">
+        <v>45270</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" ht="43.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="3">
         <v>6.7</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="3"/>
+      <c r="E10" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="F10" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="F10" s="3"/>
-    </row>
-    <row r="11" spans="2:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="3">
-        <v>4.8</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F11" s="3"/>
-    </row>
-    <row r="12" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="3">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F12" s="3"/>
-    </row>
-    <row r="13" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="14">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" s="3"/>
-    </row>
+      <c r="G10" s="20"/>
+      <c r="H10" s="31" t="s">
+        <v>186</v>
+      </c>
+      <c r="I10" s="22">
+        <v>45179</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="K10" s="22">
+        <v>45270</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" ht="27" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="19" ht="29.4" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="20" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="23" ht="28.2" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3578,190 +4757,375 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE7621E9-64D4-400C-8AFE-E686CE4372EC}">
-  <dimension ref="B2:F85"/>
+  <dimension ref="B2:K85"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="6.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.5546875" customWidth="1"/>
-    <col min="4" max="4" width="25.33203125" customWidth="1"/>
+    <col min="4" max="4" width="32.5546875" customWidth="1"/>
     <col min="5" max="5" width="35.44140625" customWidth="1"/>
-    <col min="6" max="6" width="22" customWidth="1"/>
+    <col min="6" max="6" width="34.88671875" customWidth="1"/>
+    <col min="7" max="7" width="22.6640625" customWidth="1"/>
+    <col min="8" max="8" width="12.5546875" customWidth="1"/>
+    <col min="9" max="9" width="11.21875" customWidth="1"/>
+    <col min="10" max="10" width="12" customWidth="1"/>
+    <col min="11" max="11" width="16.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="4" t="s">
+    <row r="2" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="33" t="s">
+        <v>170</v>
+      </c>
+      <c r="E2" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="33" t="s">
+        <v>171</v>
+      </c>
+      <c r="H2" s="33" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="8">
+      <c r="I2" s="33" t="s">
+        <v>172</v>
+      </c>
+      <c r="J2" s="33" t="s">
+        <v>173</v>
+      </c>
+      <c r="K2" s="33" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="34">
         <v>7</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-    </row>
-    <row r="4" spans="2:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="3">
+      <c r="D3" s="36"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
+    </row>
+    <row r="4" spans="2:11" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="38">
         <v>7.1</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="24" t="s">
+        <v>224</v>
+      </c>
+      <c r="E4" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="F4" s="3"/>
-    </row>
-    <row r="5" spans="2:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="3">
+      <c r="G4" s="24" t="s">
+        <v>226</v>
+      </c>
+      <c r="H4" s="31" t="s">
+        <v>186</v>
+      </c>
+      <c r="I4" s="39">
+        <v>45179</v>
+      </c>
+      <c r="J4" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="K4" s="39">
+        <v>45270</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="38">
         <v>7.2</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="2" t="s">
+      <c r="D5" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="E5" s="38"/>
+      <c r="F5" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="F5" s="3"/>
-    </row>
-    <row r="6" spans="2:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="3">
+      <c r="G5" s="24" t="s">
+        <v>227</v>
+      </c>
+      <c r="H5" s="31" t="s">
+        <v>186</v>
+      </c>
+      <c r="I5" s="39">
+        <v>45179</v>
+      </c>
+      <c r="J5" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="K5" s="39">
+        <v>45270</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" ht="49.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="38">
         <v>7.3</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="24" t="s">
+        <v>228</v>
+      </c>
+      <c r="E6" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="F6" s="3"/>
-    </row>
-    <row r="7" spans="2:6" ht="52.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="3">
+      <c r="G6" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="H6" s="31" t="s">
+        <v>186</v>
+      </c>
+      <c r="I6" s="39">
+        <v>45179</v>
+      </c>
+      <c r="J6" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="K6" s="39">
+        <v>45270</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" ht="52.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="38">
         <v>7.4</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="24" t="s">
+        <v>228</v>
+      </c>
+      <c r="E7" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="F7" s="3"/>
-    </row>
-    <row r="8" spans="2:6" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="3">
+      <c r="G7" s="24" t="s">
+        <v>230</v>
+      </c>
+      <c r="H7" s="31" t="s">
+        <v>186</v>
+      </c>
+      <c r="I7" s="39">
+        <v>45179</v>
+      </c>
+      <c r="J7" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="K7" s="39">
+        <v>45270</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="38">
         <v>7.5</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="1" t="s">
+      <c r="D8" s="24" t="s">
+        <v>231</v>
+      </c>
+      <c r="E8" s="26"/>
+      <c r="F8" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="F8" s="3"/>
-    </row>
-    <row r="9" spans="2:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="3">
+      <c r="G8" s="32" t="s">
+        <v>232</v>
+      </c>
+      <c r="H8" s="31" t="s">
+        <v>186</v>
+      </c>
+      <c r="I8" s="39">
+        <v>45179</v>
+      </c>
+      <c r="J8" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="K8" s="39">
+        <v>45270</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="38">
         <v>7.6</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="2" t="s">
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" ht="43.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="3">
+      <c r="G9" s="40"/>
+      <c r="H9" s="31" t="s">
+        <v>186</v>
+      </c>
+      <c r="I9" s="39">
+        <v>45179</v>
+      </c>
+      <c r="J9" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="K9" s="39">
+        <v>45270</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" ht="43.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="38">
         <v>7.7</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="38"/>
+      <c r="E10" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="F10" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="F10" s="3"/>
-    </row>
-    <row r="11" spans="2:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="3">
+      <c r="G10" s="40"/>
+      <c r="H10" s="31" t="s">
+        <v>186</v>
+      </c>
+      <c r="I10" s="39">
+        <v>45179</v>
+      </c>
+      <c r="J10" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="K10" s="39">
+        <v>45270</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" ht="50.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="38">
         <v>7.8</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="2" t="s">
+      <c r="D11" s="24" t="s">
+        <v>233</v>
+      </c>
+      <c r="E11" s="38"/>
+      <c r="F11" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="F11" s="15">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="3">
+      <c r="G11" s="30" t="s">
+        <v>234</v>
+      </c>
+      <c r="H11" s="52" t="s">
+        <v>252</v>
+      </c>
+      <c r="I11" s="39">
+        <v>45179</v>
+      </c>
+      <c r="J11" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="K11" s="39">
+        <v>45270</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="38">
         <v>7.9</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="F12" s="3"/>
-    </row>
-    <row r="13" spans="2:6" ht="46.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="14">
+      <c r="D12" s="24" t="s">
+        <v>236</v>
+      </c>
+      <c r="E12" s="24" t="s">
+        <v>237</v>
+      </c>
+      <c r="F12" s="24" t="s">
+        <v>235</v>
+      </c>
+      <c r="G12" s="32" t="s">
+        <v>238</v>
+      </c>
+      <c r="H12" s="31" t="s">
+        <v>186</v>
+      </c>
+      <c r="I12" s="39">
+        <v>45179</v>
+      </c>
+      <c r="J12" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="K12" s="39">
+        <v>45270</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" ht="46.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="41">
         <v>7.1</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="1" t="s">
+      <c r="D13" s="26" t="s">
+        <v>239</v>
+      </c>
+      <c r="E13" s="26"/>
+      <c r="F13" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="F13" s="3"/>
+      <c r="G13" s="32" t="s">
+        <v>223</v>
+      </c>
+      <c r="H13" s="31" t="s">
+        <v>186</v>
+      </c>
+      <c r="I13" s="39">
+        <v>45179</v>
+      </c>
+      <c r="J13" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="K13" s="39">
+        <v>45270</v>
+      </c>
     </row>
     <row r="19" ht="29.4" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="20" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3813,10 +5177,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F504B256-1E5E-4803-899F-B7D2FD34E66D}">
-  <dimension ref="B2:F85"/>
+  <dimension ref="B2:K85"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:F94"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3825,129 +5189,240 @@
     <col min="3" max="3" width="24.5546875" customWidth="1"/>
     <col min="4" max="4" width="25.33203125" customWidth="1"/>
     <col min="5" max="5" width="35.44140625" customWidth="1"/>
-    <col min="6" max="6" width="22" customWidth="1"/>
+    <col min="6" max="6" width="34.21875" customWidth="1"/>
+    <col min="7" max="7" width="19.77734375" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" customWidth="1"/>
+    <col min="9" max="9" width="10.88671875" customWidth="1"/>
+    <col min="10" max="10" width="11.5546875" customWidth="1"/>
+    <col min="11" max="11" width="16.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="4" t="s">
+    <row r="2" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="42" t="s">
+        <v>170</v>
+      </c>
+      <c r="E2" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="42" t="s">
+        <v>171</v>
+      </c>
+      <c r="H2" s="42" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="8">
+      <c r="I2" s="42" t="s">
+        <v>172</v>
+      </c>
+      <c r="J2" s="42" t="s">
+        <v>173</v>
+      </c>
+      <c r="K2" s="42" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="43">
         <v>8</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-    </row>
-    <row r="4" spans="2:6" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="3">
+      <c r="D3" s="45"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+    </row>
+    <row r="4" spans="2:11" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="25">
         <v>8.1</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="24" t="s">
+        <v>240</v>
+      </c>
+      <c r="E4" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="F4" s="3"/>
-    </row>
-    <row r="5" spans="2:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="3">
+      <c r="G4" s="24" t="s">
+        <v>241</v>
+      </c>
+      <c r="H4" s="47" t="s">
+        <v>186</v>
+      </c>
+      <c r="I4" s="48">
+        <v>45179</v>
+      </c>
+      <c r="J4" s="24" t="s">
+        <v>187</v>
+      </c>
+      <c r="K4" s="48">
+        <v>45270</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="25">
         <v>8.1999999999999993</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="2" t="s">
+      <c r="D5" s="24" t="s">
+        <v>242</v>
+      </c>
+      <c r="E5" s="25"/>
+      <c r="F5" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="F5" s="11">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="3">
+      <c r="G5" s="24" t="s">
+        <v>243</v>
+      </c>
+      <c r="H5" s="47" t="s">
+        <v>186</v>
+      </c>
+      <c r="I5" s="48">
+        <v>45179</v>
+      </c>
+      <c r="J5" s="24" t="s">
+        <v>187</v>
+      </c>
+      <c r="K5" s="48">
+        <v>45270</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="25">
         <v>8.3000000000000007</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="24"/>
+      <c r="E6" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="F6" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="F6" s="3"/>
-    </row>
-    <row r="7" spans="2:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="3">
+      <c r="G6" s="24" t="s">
+        <v>244</v>
+      </c>
+      <c r="H6" s="47" t="s">
+        <v>186</v>
+      </c>
+      <c r="I6" s="48">
+        <v>45179</v>
+      </c>
+      <c r="J6" s="24" t="s">
+        <v>187</v>
+      </c>
+      <c r="K6" s="48">
+        <v>45270</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="25">
         <v>8.4</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="24"/>
+      <c r="E7" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="F7" s="3"/>
-    </row>
-    <row r="8" spans="2:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="3">
+      <c r="G7" s="24"/>
+      <c r="H7" s="47" t="s">
+        <v>186</v>
+      </c>
+      <c r="I7" s="48">
+        <v>45179</v>
+      </c>
+      <c r="J7" s="24" t="s">
+        <v>187</v>
+      </c>
+      <c r="K7" s="48">
+        <v>45270</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="25">
         <v>8.5</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1" t="s">
+      <c r="D8" s="49"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="F8" s="11">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="3">
+      <c r="G8" s="32" t="s">
+        <v>245</v>
+      </c>
+      <c r="H8" s="53" t="s">
+        <v>252</v>
+      </c>
+      <c r="I8" s="48">
+        <v>45179</v>
+      </c>
+      <c r="J8" s="24" t="s">
+        <v>187</v>
+      </c>
+      <c r="K8" s="48">
+        <v>45270</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="25">
         <v>8.6</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="25"/>
+      <c r="E9" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="F9" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="11"/>
-    </row>
-    <row r="10" spans="2:6" ht="43.2" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="2:6" ht="27" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="47" t="s">
+        <v>186</v>
+      </c>
+      <c r="I9" s="48">
+        <v>45179</v>
+      </c>
+      <c r="J9" s="24" t="s">
+        <v>187</v>
+      </c>
+      <c r="K9" s="48">
+        <v>45270</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" ht="43.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="2:11" ht="27" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="19" ht="29.4" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="20" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="23" ht="28.2" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3998,10 +5473,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51C91288-70B3-428A-906E-C603E2370B30}">
-  <dimension ref="B2:F85"/>
+  <dimension ref="B2:K85"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4010,123 +5485,234 @@
     <col min="3" max="3" width="24.5546875" customWidth="1"/>
     <col min="4" max="4" width="25.33203125" customWidth="1"/>
     <col min="5" max="5" width="35.44140625" customWidth="1"/>
-    <col min="6" max="6" width="22" customWidth="1"/>
+    <col min="6" max="6" width="35.5546875" customWidth="1"/>
+    <col min="7" max="7" width="20.21875" customWidth="1"/>
+    <col min="8" max="8" width="12" customWidth="1"/>
+    <col min="9" max="9" width="11.5546875" customWidth="1"/>
+    <col min="10" max="10" width="12.44140625" customWidth="1"/>
+    <col min="11" max="11" width="17.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="4" t="s">
+    <row r="2" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="42" t="s">
+        <v>170</v>
+      </c>
+      <c r="E2" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="42" t="s">
+        <v>171</v>
+      </c>
+      <c r="H2" s="42" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="8">
+      <c r="I2" s="42" t="s">
+        <v>172</v>
+      </c>
+      <c r="J2" s="42" t="s">
+        <v>173</v>
+      </c>
+      <c r="K2" s="42" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="43">
         <v>9</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="44" t="s">
         <v>115</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-    </row>
-    <row r="4" spans="2:6" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="3">
+      <c r="D3" s="45"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+    </row>
+    <row r="4" spans="2:11" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="25">
         <v>9.1</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="24" t="s">
+        <v>246</v>
+      </c>
+      <c r="E4" s="24" t="s">
         <v>117</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="F4" s="3"/>
-    </row>
-    <row r="5" spans="2:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="3">
+      <c r="G4" s="24" t="s">
+        <v>247</v>
+      </c>
+      <c r="H4" s="47" t="s">
+        <v>186</v>
+      </c>
+      <c r="I4" s="48">
+        <v>45179</v>
+      </c>
+      <c r="J4" s="24" t="s">
+        <v>187</v>
+      </c>
+      <c r="K4" s="48">
+        <v>45270</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="25">
         <v>9.1999999999999993</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="2" t="s">
+      <c r="D5" s="24"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="24" t="s">
         <v>120</v>
       </c>
-      <c r="F5" s="11"/>
-    </row>
-    <row r="6" spans="2:6" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="3">
+      <c r="G5" s="24"/>
+      <c r="H5" s="47" t="s">
+        <v>186</v>
+      </c>
+      <c r="I5" s="48">
+        <v>45179</v>
+      </c>
+      <c r="J5" s="24" t="s">
+        <v>187</v>
+      </c>
+      <c r="K5" s="48">
+        <v>45270</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" ht="53.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="25">
         <v>9.3000000000000007</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="1" t="s">
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="F6" s="3"/>
-    </row>
-    <row r="7" spans="2:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="3">
+      <c r="G6" s="24" t="s">
+        <v>248</v>
+      </c>
+      <c r="H6" s="47" t="s">
+        <v>186</v>
+      </c>
+      <c r="I6" s="48">
+        <v>45179</v>
+      </c>
+      <c r="J6" s="24" t="s">
+        <v>187</v>
+      </c>
+      <c r="K6" s="48">
+        <v>45270</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="25">
         <v>9.4</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="24" t="s">
         <v>127</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="24"/>
+      <c r="E7" s="24" t="s">
         <v>128</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="F7" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="F7" s="3"/>
-    </row>
-    <row r="8" spans="2:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="3">
+      <c r="G7" s="24"/>
+      <c r="H7" s="47" t="s">
+        <v>186</v>
+      </c>
+      <c r="I7" s="48">
+        <v>45179</v>
+      </c>
+      <c r="J7" s="24" t="s">
+        <v>187</v>
+      </c>
+      <c r="K7" s="48">
+        <v>45270</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" ht="99.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="25">
         <v>9.5</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="54" t="s">
         <v>123</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="49"/>
+      <c r="E8" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="F8" s="11"/>
-    </row>
-    <row r="9" spans="2:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="3">
+      <c r="G8" s="55" t="s">
+        <v>249</v>
+      </c>
+      <c r="H8" s="51" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" s="48">
+        <v>45179</v>
+      </c>
+      <c r="J8" s="24" t="s">
+        <v>187</v>
+      </c>
+      <c r="K8" s="48">
+        <v>45270</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="25">
         <v>9.6</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1" t="s">
+      <c r="D9" s="25"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="11"/>
-    </row>
-    <row r="10" spans="2:6" ht="43.2" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="2:6" ht="27" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="47" t="s">
+        <v>186</v>
+      </c>
+      <c r="I9" s="48">
+        <v>45179</v>
+      </c>
+      <c r="J9" s="24" t="s">
+        <v>187</v>
+      </c>
+      <c r="K9" s="48">
+        <v>45270</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" ht="43.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="2:11" ht="27" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="19" ht="29.4" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="20" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="23" ht="28.2" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4177,10 +5763,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1449625-E7E0-40C0-ACC1-12FCA5F5F54F}">
-  <dimension ref="B2:F85"/>
+  <dimension ref="B2:K85"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4189,10 +5775,15 @@
     <col min="3" max="3" width="24.5546875" customWidth="1"/>
     <col min="4" max="4" width="25.33203125" customWidth="1"/>
     <col min="5" max="5" width="35.44140625" customWidth="1"/>
-    <col min="6" max="6" width="22" customWidth="1"/>
+    <col min="6" max="6" width="35.33203125" customWidth="1"/>
+    <col min="7" max="7" width="19.5546875" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" customWidth="1"/>
+    <col min="10" max="10" width="12.77734375" customWidth="1"/>
+    <col min="11" max="11" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
@@ -4200,55 +5791,103 @@
         <v>3</v>
       </c>
       <c r="D2" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I2" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="8">
         <v>10</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="D3" s="7"/>
+      <c r="D3" s="6"/>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
-    </row>
-    <row r="4" spans="2:6" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+    </row>
+    <row r="4" spans="2:11" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="3">
         <v>10.1</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="24" t="s">
+        <v>251</v>
+      </c>
+      <c r="E4" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="F4" s="3"/>
-    </row>
-    <row r="5" spans="2:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G4" s="24"/>
+      <c r="H4" s="47" t="s">
+        <v>186</v>
+      </c>
+      <c r="I4" s="48">
+        <v>45179</v>
+      </c>
+      <c r="J4" s="24" t="s">
+        <v>187</v>
+      </c>
+      <c r="K4" s="48">
+        <v>45270</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="3">
         <v>10.199999999999999</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="2" t="s">
+      <c r="D5" s="2"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="24" t="s">
         <v>134</v>
       </c>
-      <c r="F5" s="11"/>
-    </row>
-    <row r="6" spans="2:6" ht="52.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G5" s="24"/>
+      <c r="H5" s="47" t="s">
+        <v>186</v>
+      </c>
+      <c r="I5" s="48">
+        <v>45179</v>
+      </c>
+      <c r="J5" s="24" t="s">
+        <v>187</v>
+      </c>
+      <c r="K5" s="48">
+        <v>45270</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" ht="52.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="3">
         <v>10.3</v>
       </c>
@@ -4256,54 +5895,110 @@
         <v>135</v>
       </c>
       <c r="D6" s="2"/>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="24"/>
+      <c r="F6" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="F6" s="3"/>
-    </row>
-    <row r="7" spans="2:6" ht="50.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G6" s="24"/>
+      <c r="H6" s="47" t="s">
+        <v>186</v>
+      </c>
+      <c r="I6" s="48">
+        <v>45179</v>
+      </c>
+      <c r="J6" s="24" t="s">
+        <v>187</v>
+      </c>
+      <c r="K6" s="48">
+        <v>45270</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" ht="50.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="3">
         <v>10.4</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1" t="s">
+      <c r="D7" s="2"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="F7" s="3"/>
-    </row>
-    <row r="8" spans="2:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G7" s="24" t="s">
+        <v>250</v>
+      </c>
+      <c r="H7" s="47" t="s">
+        <v>186</v>
+      </c>
+      <c r="I7" s="48">
+        <v>45179</v>
+      </c>
+      <c r="J7" s="24" t="s">
+        <v>187</v>
+      </c>
+      <c r="K7" s="48">
+        <v>45270</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" ht="111" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="3">
         <v>10.5</v>
       </c>
       <c r="C8" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="20"/>
+      <c r="E8" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="24" t="s">
         <v>139</v>
       </c>
-      <c r="F8" s="11"/>
-    </row>
-    <row r="9" spans="2:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G8" s="55" t="s">
+        <v>249</v>
+      </c>
+      <c r="H8" s="50" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" s="48">
+        <v>45179</v>
+      </c>
+      <c r="J8" s="24" t="s">
+        <v>187</v>
+      </c>
+      <c r="K8" s="48">
+        <v>45270</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="3">
         <v>10.6</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1" t="s">
+      <c r="D9" s="3"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="11"/>
-    </row>
-    <row r="10" spans="2:6" ht="43.2" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="2:6" ht="27" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="47" t="s">
+        <v>186</v>
+      </c>
+      <c r="I9" s="48">
+        <v>45179</v>
+      </c>
+      <c r="J9" s="24" t="s">
+        <v>187</v>
+      </c>
+      <c r="K9" s="48">
+        <v>45270</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" ht="43.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="2:11" ht="27" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="19" ht="29.4" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="20" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="23" ht="28.2" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Test cases.xlsx
+++ b/Test cases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thi Binh\Desktop\BaoCao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58E978F9-A5FB-450F-BD38-4E0C6D907FBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3325D00A-CA10-42CF-845B-D3D96460436D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="0" showVerticalScroll="0" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView showHorizontalScroll="0" showVerticalScroll="0" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCase" sheetId="17" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <sheet name="QlPhieuNhap" sheetId="24" r:id="rId8"/>
     <sheet name="QlPhieuXuat" sheetId="25" r:id="rId9"/>
     <sheet name="ThongTinNguoiDung" sheetId="26" r:id="rId10"/>
+    <sheet name="ThongKe" sheetId="27" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="296">
   <si>
     <t>Thiết kế</t>
   </si>
@@ -823,6 +824,183 @@
   </si>
   <si>
     <t>Fixing</t>
+  </si>
+  <si>
+    <t>1. Click vào button tạo phiếu nhập              2. Thêm dữ liệu vào form                    3. Click button xác nhận</t>
+  </si>
+  <si>
+    <t>1. Click vào button tạo phiếu nhập                                  3. Click button xác nhận</t>
+  </si>
+  <si>
+    <t>click vào button chi tiết ở cuối sản phẩm</t>
+  </si>
+  <si>
+    <t>{
+    "nhaCungCapId": 1,
+    "userId": 7,
+    "chiTietPhieuNhapList": [
+        {
+            "sanpham": {
+                "id": 9
+            },
+            "soluong": 100,
+            "gia": 10000
+        }
+]
+}</t>
+  </si>
+  <si>
+    <t>1. Click vào button tạo phiếu nhập              2. Thêm dữ liệu (số lượng vượt trong kho) vào form                          3. Click button xác nhận</t>
+  </si>
+  <si>
+    <t>{
+    "userId": 7,
+    "chiTietPhieuXuatList": [
+        {
+            "sanpham": {
+                "id": 57
+            },
+            "soluong": 1000,
+            "gia": 10000
+        },
+        {
+            "sanpham": {
+                "id": 44
+            },
+            "soluong": 500,
+            "gia": 20000
+        }
+]
+}</t>
+  </si>
+  <si>
+    <t>{
+    "userId": 7,
+    "chiTietPhieuXuatList": [
+        {
+            "sanpham": {
+                "id": 57
+            },
+            "soluong": 100,
+            "gia": 10000
+        },
+        {
+            "sanpham": {
+                "id": 44
+            },
+            "soluong": 5,
+            "gia": 20000
+        }
+]
+}</t>
+  </si>
+  <si>
+    <t>Hiển thị đúng thông tin người dùng đã cập nhật</t>
+  </si>
+  <si>
+    <t>1. Click vào button tạo phiếu nhập                                       2. Thêm dữ liệu                            3. Click button xác nhận</t>
+  </si>
+  <si>
+    <t>click vào avatar để xem thông tin người dùng</t>
+  </si>
+  <si>
+    <t>update thông tin email</t>
+  </si>
+  <si>
+    <t>update thông tin số điện thoại</t>
+  </si>
+  <si>
+    <t>update thông tin số cccd</t>
+  </si>
+  <si>
+    <t>thông báo "sai mật khẩu"</t>
+  </si>
+  <si>
+    <t>update thông tin mật khẩu</t>
+  </si>
+  <si>
+    <t>Chưa Thông báo cho người dùng "trùng cccd"</t>
+  </si>
+  <si>
+    <t>Chưa Thông báo cho người dùng "trùng số điện thoại"</t>
+  </si>
+  <si>
+    <t>Chưa Thông báo cho người dùng "trùng email"</t>
+  </si>
+  <si>
+    <t>Thống kê sản phẩm nhập</t>
+  </si>
+  <si>
+    <t>click vào thống kê sản phẩm nhập trên menu</t>
+  </si>
+  <si>
+    <t>Table CTPN, SANPHAM</t>
+  </si>
+  <si>
+    <t>Thông tin số lượng từng sản phẩm nhập</t>
+  </si>
+  <si>
+    <t>Hiển thị đúng thông tin số lượng sản phẩm nhập</t>
+  </si>
+  <si>
+    <t>click vào thống kê sản phẩm xuất trên menu</t>
+  </si>
+  <si>
+    <t>Table CTPX, SANPHAM</t>
+  </si>
+  <si>
+    <t>Thông tin số lượng từng sản phẩm xuất</t>
+  </si>
+  <si>
+    <t>Hiển thị đúng thông tin số lượng sản phẩm xuất</t>
+  </si>
+  <si>
+    <t>Thống kê doanh thu nhập</t>
+  </si>
+  <si>
+    <t>click vào thống kê doanh thu nhập trên menu</t>
+  </si>
+  <si>
+    <t>Thông tin doanh thu của từng phiếu nhập</t>
+  </si>
+  <si>
+    <t>Hiển thị đúng thông tin của từng phiếu</t>
+  </si>
+  <si>
+    <t>click vào thống kê doanh thu xuất trên menu</t>
+  </si>
+  <si>
+    <t>Thông tin doanh thu của từng phiếu xuất</t>
+  </si>
+  <si>
+    <t>Thống kê doanh thu xuất</t>
+  </si>
+  <si>
+    <t>click vào thống kê doanh thu nhập/xuất trên menu</t>
+  </si>
+  <si>
+    <t>Table CTPN,CTPX, SANPHAM</t>
+  </si>
+  <si>
+    <t>Thông tin doanh thu của từng phiếu, tổng doanh thu tất cả các phiếu nhập/xuất</t>
+  </si>
+  <si>
+    <t>Hiển thị đúng thông tin doanh thu của từng phiếu và tổng tất cả các phiếu</t>
+  </si>
+  <si>
+    <t>Xuất file excel thống kê số lượng nhập/xuất</t>
+  </si>
+  <si>
+    <t>Xuất file excel thống kê doanh thu nhập/xuất</t>
+  </si>
+  <si>
+    <t>click vào thống kê sản phẩm nhập/xuất trên menu</t>
+  </si>
+  <si>
+    <t>Thông tin của từng  sản phẩm, tổng số lượng tất cả các phiếu nhập/xuất</t>
+  </si>
+  <si>
+    <t>Hiển thị đúng thông tin số lượng của từng sản phẩm trên các phiếu nhập/xuất</t>
   </si>
 </sst>
 </file>
@@ -971,7 +1149,7 @@
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1109,6 +1287,9 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -2799,14 +2980,14 @@
   <dimension ref="B2:K85"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="6.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.5546875" customWidth="1"/>
-    <col min="4" max="4" width="25.33203125" customWidth="1"/>
+    <col min="4" max="4" width="29" customWidth="1"/>
     <col min="5" max="5" width="35.44140625" customWidth="1"/>
     <col min="6" max="6" width="29.5546875" customWidth="1"/>
     <col min="7" max="7" width="19.6640625" customWidth="1"/>
@@ -2870,14 +3051,18 @@
       <c r="C4" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D4" s="2"/>
+      <c r="D4" s="1" t="s">
+        <v>262</v>
+      </c>
       <c r="E4" s="2" t="s">
         <v>106</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="G4" s="2"/>
+      <c r="G4" s="2" t="s">
+        <v>260</v>
+      </c>
       <c r="H4" s="31" t="s">
         <v>186</v>
       </c>
@@ -2891,23 +3076,27 @@
         <v>45270</v>
       </c>
     </row>
-    <row r="5" spans="2:11" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:11" ht="58.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="3">
         <v>11.2</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="D5" s="2"/>
+      <c r="D5" s="24" t="s">
+        <v>261</v>
+      </c>
       <c r="E5" s="17" t="s">
         <v>149</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="31" t="s">
-        <v>186</v>
+      <c r="G5" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="H5" s="56" t="b">
+        <v>0</v>
       </c>
       <c r="I5" s="22">
         <v>45179</v>
@@ -2919,21 +3108,25 @@
         <v>45270</v>
       </c>
     </row>
-    <row r="6" spans="2:11" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:11" ht="51.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="3">
         <v>11.3</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="24" t="s">
+        <v>261</v>
+      </c>
       <c r="E6" s="17" t="s">
         <v>150</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="G6" s="2"/>
+      <c r="G6" s="2" t="s">
+        <v>263</v>
+      </c>
       <c r="H6" s="31" t="s">
         <v>186</v>
       </c>
@@ -2947,23 +3140,27 @@
         <v>45270</v>
       </c>
     </row>
-    <row r="7" spans="2:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:11" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="3">
         <v>11.4</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="24" t="s">
+        <v>261</v>
+      </c>
       <c r="E7" s="18" t="s">
         <v>151</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="31" t="s">
-        <v>186</v>
+      <c r="G7" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="H7" s="56" t="b">
+        <v>0</v>
       </c>
       <c r="I7" s="22">
         <v>45179</v>
@@ -2975,21 +3172,25 @@
         <v>45270</v>
       </c>
     </row>
-    <row r="8" spans="2:11" ht="43.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:11" ht="63.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="3">
         <v>11.5</v>
       </c>
       <c r="C8" s="16" t="s">
         <v>148</v>
       </c>
-      <c r="D8" s="20"/>
+      <c r="D8" s="24" t="s">
+        <v>261</v>
+      </c>
       <c r="E8" s="18" t="s">
         <v>152</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="G8" s="20"/>
+      <c r="G8" s="2" t="s">
+        <v>264</v>
+      </c>
       <c r="H8" s="31" t="s">
         <v>186</v>
       </c>
@@ -3003,23 +3204,27 @@
         <v>45270</v>
       </c>
     </row>
-    <row r="9" spans="2:11" ht="43.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:11" ht="55.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="3">
         <v>11.6</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="D9" s="3"/>
+      <c r="D9" s="24" t="s">
+        <v>261</v>
+      </c>
       <c r="E9" s="19" t="s">
         <v>158</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="G9" s="20"/>
-      <c r="H9" s="31" t="s">
-        <v>186</v>
+      <c r="G9" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="H9" s="56" t="b">
+        <v>0</v>
       </c>
       <c r="I9" s="22">
         <v>45179</v>
@@ -3031,21 +3236,25 @@
         <v>45270</v>
       </c>
     </row>
-    <row r="10" spans="2:11" ht="43.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:11" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="3">
         <v>11.7</v>
       </c>
       <c r="C10" s="16" t="s">
         <v>160</v>
       </c>
-      <c r="D10" s="2"/>
+      <c r="D10" s="24" t="s">
+        <v>261</v>
+      </c>
       <c r="E10" s="18" t="s">
         <v>161</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="G10" s="2"/>
+      <c r="G10" s="2" t="s">
+        <v>265</v>
+      </c>
       <c r="H10" s="31" t="s">
         <v>186</v>
       </c>
@@ -3059,21 +3268,25 @@
         <v>45270</v>
       </c>
     </row>
-    <row r="11" spans="2:11" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:11" ht="51.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="3">
         <v>11.8</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="D11" s="2"/>
+      <c r="D11" s="24" t="s">
+        <v>261</v>
+      </c>
       <c r="E11" s="1" t="s">
         <v>165</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="G11" s="20"/>
+      <c r="G11" s="28" t="s">
+        <v>266</v>
+      </c>
       <c r="H11" s="31" t="s">
         <v>186</v>
       </c>
@@ -3094,14 +3307,18 @@
       <c r="C12" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="D12" s="2"/>
+      <c r="D12" s="24" t="s">
+        <v>261</v>
+      </c>
       <c r="E12" s="1" t="s">
         <v>163</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="G12" s="20"/>
+      <c r="G12" s="2" t="s">
+        <v>267</v>
+      </c>
       <c r="H12" s="31" t="s">
         <v>186</v>
       </c>
@@ -3192,6 +3409,318 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08F29797-E11A-49CC-BB58-E3C1F417B451}">
+  <dimension ref="B2:K85"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.5546875" customWidth="1"/>
+    <col min="4" max="4" width="29" customWidth="1"/>
+    <col min="5" max="5" width="35.44140625" customWidth="1"/>
+    <col min="6" max="6" width="29.5546875" customWidth="1"/>
+    <col min="7" max="7" width="19.6640625" customWidth="1"/>
+    <col min="8" max="8" width="11.88671875" customWidth="1"/>
+    <col min="9" max="10" width="11.5546875" customWidth="1"/>
+    <col min="11" max="11" width="16.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="42" t="s">
+        <v>170</v>
+      </c>
+      <c r="E2" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="42" t="s">
+        <v>171</v>
+      </c>
+      <c r="H2" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="42" t="s">
+        <v>172</v>
+      </c>
+      <c r="J2" s="42" t="s">
+        <v>173</v>
+      </c>
+      <c r="K2" s="42" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="43">
+        <v>12</v>
+      </c>
+      <c r="C3" s="44" t="s">
+        <v>169</v>
+      </c>
+      <c r="D3" s="45"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+    </row>
+    <row r="4" spans="2:11" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="25">
+        <v>12.1</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>271</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>272</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>273</v>
+      </c>
+      <c r="F4" s="24" t="s">
+        <v>274</v>
+      </c>
+      <c r="G4" s="24" t="s">
+        <v>275</v>
+      </c>
+      <c r="H4" s="47" t="s">
+        <v>186</v>
+      </c>
+      <c r="I4" s="48">
+        <v>45179</v>
+      </c>
+      <c r="J4" s="24" t="s">
+        <v>187</v>
+      </c>
+      <c r="K4" s="48">
+        <v>45270</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="25">
+        <v>12.2</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>271</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>276</v>
+      </c>
+      <c r="E5" s="24" t="s">
+        <v>277</v>
+      </c>
+      <c r="F5" s="24" t="s">
+        <v>278</v>
+      </c>
+      <c r="G5" s="24" t="s">
+        <v>279</v>
+      </c>
+      <c r="H5" s="47" t="s">
+        <v>186</v>
+      </c>
+      <c r="I5" s="48">
+        <v>45179</v>
+      </c>
+      <c r="J5" s="24" t="s">
+        <v>187</v>
+      </c>
+      <c r="K5" s="48">
+        <v>45270</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" ht="51.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="25">
+        <v>12.3</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>280</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>281</v>
+      </c>
+      <c r="E6" s="24" t="s">
+        <v>273</v>
+      </c>
+      <c r="F6" s="24" t="s">
+        <v>282</v>
+      </c>
+      <c r="G6" s="24" t="s">
+        <v>283</v>
+      </c>
+      <c r="H6" s="47" t="s">
+        <v>186</v>
+      </c>
+      <c r="I6" s="48">
+        <v>45179</v>
+      </c>
+      <c r="J6" s="24" t="s">
+        <v>187</v>
+      </c>
+      <c r="K6" s="48">
+        <v>45270</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="24">
+        <v>12.4</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>286</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>284</v>
+      </c>
+      <c r="E7" s="24" t="s">
+        <v>273</v>
+      </c>
+      <c r="F7" s="24" t="s">
+        <v>285</v>
+      </c>
+      <c r="G7" s="24" t="s">
+        <v>283</v>
+      </c>
+      <c r="H7" s="47" t="s">
+        <v>186</v>
+      </c>
+      <c r="I7" s="48">
+        <v>45179</v>
+      </c>
+      <c r="J7" s="24" t="s">
+        <v>187</v>
+      </c>
+      <c r="K7" s="48">
+        <v>45270</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" ht="63.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="25">
+        <v>12.5</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>292</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>287</v>
+      </c>
+      <c r="E8" s="24" t="s">
+        <v>288</v>
+      </c>
+      <c r="F8" s="24" t="s">
+        <v>289</v>
+      </c>
+      <c r="G8" s="24" t="s">
+        <v>290</v>
+      </c>
+      <c r="H8" s="47" t="s">
+        <v>186</v>
+      </c>
+      <c r="I8" s="48">
+        <v>45179</v>
+      </c>
+      <c r="J8" s="24" t="s">
+        <v>187</v>
+      </c>
+      <c r="K8" s="48">
+        <v>45270</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" ht="55.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="25">
+        <v>12.5</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>291</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>293</v>
+      </c>
+      <c r="E9" s="24" t="s">
+        <v>288</v>
+      </c>
+      <c r="F9" s="24" t="s">
+        <v>294</v>
+      </c>
+      <c r="G9" s="24" t="s">
+        <v>295</v>
+      </c>
+      <c r="H9" s="47" t="s">
+        <v>186</v>
+      </c>
+      <c r="I9" s="48">
+        <v>45179</v>
+      </c>
+      <c r="J9" s="24" t="s">
+        <v>187</v>
+      </c>
+      <c r="K9" s="48">
+        <v>45270</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" ht="54" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="2:11" ht="51.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="2:11" ht="50.4" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" ht="29.4" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" ht="28.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" ht="31.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" ht="43.8" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" ht="28.8" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" ht="29.4" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" ht="44.4" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" ht="58.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" ht="36" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" ht="41.4" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" ht="44.4" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" ht="31.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" ht="25.8" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" ht="35.4" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" ht="31.8" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" ht="28.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" ht="27.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" ht="43.8" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" ht="31.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" ht="31.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" ht="35.4" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" ht="30.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" ht="43.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" ht="32.4" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" ht="33" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" ht="39.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" ht="28.8" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" ht="29.4" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" ht="43.8" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" ht="31.8" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" ht="48.6" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3716,7 +4245,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D75EF832-73A8-47A1-BB6C-94AC153CCAFF}">
   <dimension ref="B2:K85"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
@@ -4760,7 +5289,7 @@
   <dimension ref="B2:K85"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5475,15 +6004,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51C91288-70B3-428A-906E-C603E2370B30}">
   <dimension ref="B2:K85"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="6.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.5546875" customWidth="1"/>
-    <col min="4" max="4" width="25.33203125" customWidth="1"/>
+    <col min="4" max="4" width="29.77734375" customWidth="1"/>
     <col min="5" max="5" width="35.44140625" customWidth="1"/>
     <col min="6" max="6" width="35.5546875" customWidth="1"/>
     <col min="7" max="7" width="20.21875" customWidth="1"/>
@@ -5580,7 +6109,9 @@
       <c r="C5" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="D5" s="24"/>
+      <c r="D5" s="24" t="s">
+        <v>254</v>
+      </c>
       <c r="E5" s="25"/>
       <c r="F5" s="24" t="s">
         <v>120</v>
@@ -5599,15 +6130,19 @@
         <v>45270</v>
       </c>
     </row>
-    <row r="6" spans="2:11" ht="53.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:11" ht="184.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="25">
         <v>9.3000000000000007</v>
       </c>
       <c r="C6" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
+      <c r="D6" s="24" t="s">
+        <v>253</v>
+      </c>
+      <c r="E6" s="24" t="s">
+        <v>256</v>
+      </c>
       <c r="F6" s="24" t="s">
         <v>122</v>
       </c>
@@ -5662,7 +6197,9 @@
       <c r="C8" s="54" t="s">
         <v>123</v>
       </c>
-      <c r="D8" s="49"/>
+      <c r="D8" s="49" t="s">
+        <v>255</v>
+      </c>
       <c r="E8" s="24" t="s">
         <v>125</v>
       </c>
@@ -5765,15 +6302,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1449625-E7E0-40C0-ACC1-12FCA5F5F54F}">
   <dimension ref="B2:K85"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="6.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.5546875" customWidth="1"/>
-    <col min="4" max="4" width="25.33203125" customWidth="1"/>
+    <col min="4" max="4" width="31.109375" customWidth="1"/>
     <col min="5" max="5" width="35.44140625" customWidth="1"/>
     <col min="6" max="6" width="35.33203125" customWidth="1"/>
     <col min="7" max="7" width="19.5546875" customWidth="1"/>
@@ -5868,7 +6405,9 @@
       <c r="C5" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="D5" s="2"/>
+      <c r="D5" s="24" t="s">
+        <v>254</v>
+      </c>
       <c r="E5" s="25"/>
       <c r="F5" s="24" t="s">
         <v>134</v>
@@ -5887,15 +6426,19 @@
         <v>45270</v>
       </c>
     </row>
-    <row r="6" spans="2:11" ht="52.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:11" ht="264.60000000000002" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="3">
         <v>10.3</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="24"/>
+      <c r="D6" s="24" t="s">
+        <v>253</v>
+      </c>
+      <c r="E6" s="24" t="s">
+        <v>259</v>
+      </c>
       <c r="F6" s="24" t="s">
         <v>122</v>
       </c>
@@ -5913,15 +6456,19 @@
         <v>45270</v>
       </c>
     </row>
-    <row r="7" spans="2:11" ht="50.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:11" ht="263.39999999999998" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="3">
         <v>10.4</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="24"/>
+      <c r="D7" s="24" t="s">
+        <v>257</v>
+      </c>
+      <c r="E7" s="24" t="s">
+        <v>258</v>
+      </c>
       <c r="F7" s="24" t="s">
         <v>137</v>
       </c>

--- a/Test cases.xlsx
+++ b/Test cases.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thi Binh\Desktop\BaoCao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3325D00A-CA10-42CF-845B-D3D96460436D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CB443D8-F05F-4FF3-A991-3E523E043615}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="0" showVerticalScroll="0" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView showHorizontalScroll="0" showVerticalScroll="0" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCase" sheetId="17" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="297">
   <si>
     <t>Thiết kế</t>
   </si>
@@ -646,9 +646,6 @@
   </si>
   <si>
     <t>Thông báo "sửa thông tin thành công!" (nếu không trùng thông tin với các kho đã tạo)/ Thông báo "Sửa kho không thành công!"</t>
-  </si>
-  <si>
-    <t>Thông báo "Sửa kho thành công"</t>
   </si>
   <si>
     <t>1. Click vào button chi tiết kho để xem chi tiết vị trí trong kho</t>
@@ -1001,6 +998,23 @@
   </si>
   <si>
     <t>Hiển thị đúng thông tin số lượng của từng sản phẩm trên các phiếu nhập/xuất</t>
+  </si>
+  <si>
+    <r>
+      <t>Thông báo "Sửa kho thành công"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> chưa hiển thị thông tin lên form</t>
+    </r>
+  </si>
+  <si>
+    <t>Xóa kho chưa có vị trí</t>
   </si>
 </sst>
 </file>
@@ -1704,10 +1718,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="B2:F93"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G78" sqref="G78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2970,8 +2987,8 @@
     <hyperlink ref="D78" r:id="rId1" xr:uid="{819D13EF-20BB-460E-A7E4-C8D6366E9656}"/>
     <hyperlink ref="D79" r:id="rId2" xr:uid="{A0DD37D6-F162-47A9-B6C1-D86635C06038}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId3"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="21" orientation="landscape" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -2980,7 +2997,7 @@
   <dimension ref="B2:K85"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3052,7 +3069,7 @@
         <v>143</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>106</v>
@@ -3061,7 +3078,7 @@
         <v>144</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H4" s="31" t="s">
         <v>186</v>
@@ -3084,7 +3101,7 @@
         <v>145</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E5" s="17" t="s">
         <v>149</v>
@@ -3093,7 +3110,7 @@
         <v>153</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H5" s="56" t="b">
         <v>0</v>
@@ -3116,7 +3133,7 @@
         <v>146</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E6" s="17" t="s">
         <v>150</v>
@@ -3125,7 +3142,7 @@
         <v>156</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H6" s="31" t="s">
         <v>186</v>
@@ -3148,7 +3165,7 @@
         <v>147</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E7" s="18" t="s">
         <v>151</v>
@@ -3157,7 +3174,7 @@
         <v>154</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H7" s="56" t="b">
         <v>0</v>
@@ -3180,7 +3197,7 @@
         <v>148</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E8" s="18" t="s">
         <v>152</v>
@@ -3189,7 +3206,7 @@
         <v>155</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H8" s="31" t="s">
         <v>186</v>
@@ -3212,7 +3229,7 @@
         <v>157</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E9" s="19" t="s">
         <v>158</v>
@@ -3221,7 +3238,7 @@
         <v>159</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H9" s="56" t="b">
         <v>0</v>
@@ -3244,7 +3261,7 @@
         <v>160</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E10" s="18" t="s">
         <v>161</v>
@@ -3253,7 +3270,7 @@
         <v>162</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H10" s="31" t="s">
         <v>186</v>
@@ -3276,7 +3293,7 @@
         <v>164</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>165</v>
@@ -3285,7 +3302,7 @@
         <v>166</v>
       </c>
       <c r="G11" s="28" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H11" s="31" t="s">
         <v>186</v>
@@ -3308,7 +3325,7 @@
         <v>167</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>163</v>
@@ -3317,7 +3334,7 @@
         <v>168</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H12" s="31" t="s">
         <v>186</v>
@@ -3416,7 +3433,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08F29797-E11A-49CC-BB58-E3C1F417B451}">
   <dimension ref="B2:K85"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
@@ -3486,19 +3503,19 @@
         <v>12.1</v>
       </c>
       <c r="C4" s="24" t="s">
+        <v>270</v>
+      </c>
+      <c r="D4" s="24" t="s">
         <v>271</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="E4" s="24" t="s">
         <v>272</v>
       </c>
-      <c r="E4" s="24" t="s">
+      <c r="F4" s="24" t="s">
         <v>273</v>
       </c>
-      <c r="F4" s="24" t="s">
+      <c r="G4" s="24" t="s">
         <v>274</v>
-      </c>
-      <c r="G4" s="24" t="s">
-        <v>275</v>
       </c>
       <c r="H4" s="47" t="s">
         <v>186</v>
@@ -3518,19 +3535,19 @@
         <v>12.2</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D5" s="24" t="s">
+        <v>275</v>
+      </c>
+      <c r="E5" s="24" t="s">
         <v>276</v>
       </c>
-      <c r="E5" s="24" t="s">
+      <c r="F5" s="24" t="s">
         <v>277</v>
       </c>
-      <c r="F5" s="24" t="s">
+      <c r="G5" s="24" t="s">
         <v>278</v>
-      </c>
-      <c r="G5" s="24" t="s">
-        <v>279</v>
       </c>
       <c r="H5" s="47" t="s">
         <v>186</v>
@@ -3550,19 +3567,19 @@
         <v>12.3</v>
       </c>
       <c r="C6" s="24" t="s">
+        <v>279</v>
+      </c>
+      <c r="D6" s="24" t="s">
         <v>280</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="E6" s="24" t="s">
+        <v>272</v>
+      </c>
+      <c r="F6" s="24" t="s">
         <v>281</v>
       </c>
-      <c r="E6" s="24" t="s">
-        <v>273</v>
-      </c>
-      <c r="F6" s="24" t="s">
+      <c r="G6" s="24" t="s">
         <v>282</v>
-      </c>
-      <c r="G6" s="24" t="s">
-        <v>283</v>
       </c>
       <c r="H6" s="47" t="s">
         <v>186</v>
@@ -3582,19 +3599,19 @@
         <v>12.4</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D7" s="24" t="s">
+        <v>283</v>
+      </c>
+      <c r="E7" s="24" t="s">
+        <v>272</v>
+      </c>
+      <c r="F7" s="24" t="s">
         <v>284</v>
       </c>
-      <c r="E7" s="24" t="s">
-        <v>273</v>
-      </c>
-      <c r="F7" s="24" t="s">
-        <v>285</v>
-      </c>
       <c r="G7" s="24" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H7" s="47" t="s">
         <v>186</v>
@@ -3614,19 +3631,19 @@
         <v>12.5</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D8" s="24" t="s">
+        <v>286</v>
+      </c>
+      <c r="E8" s="24" t="s">
         <v>287</v>
       </c>
-      <c r="E8" s="24" t="s">
+      <c r="F8" s="24" t="s">
         <v>288</v>
       </c>
-      <c r="F8" s="24" t="s">
+      <c r="G8" s="24" t="s">
         <v>289</v>
-      </c>
-      <c r="G8" s="24" t="s">
-        <v>290</v>
       </c>
       <c r="H8" s="47" t="s">
         <v>186</v>
@@ -3646,19 +3663,19 @@
         <v>12.5</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D9" s="24" t="s">
+        <v>292</v>
+      </c>
+      <c r="E9" s="24" t="s">
+        <v>287</v>
+      </c>
+      <c r="F9" s="24" t="s">
         <v>293</v>
       </c>
-      <c r="E9" s="24" t="s">
-        <v>288</v>
-      </c>
-      <c r="F9" s="24" t="s">
+      <c r="G9" s="24" t="s">
         <v>294</v>
-      </c>
-      <c r="G9" s="24" t="s">
-        <v>295</v>
       </c>
       <c r="H9" s="47" t="s">
         <v>186</v>
@@ -4246,7 +4263,7 @@
   <dimension ref="B2:K85"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4450,7 +4467,7 @@
         <v>44</v>
       </c>
       <c r="G8" s="28" t="s">
-        <v>97</v>
+        <v>296</v>
       </c>
       <c r="H8" s="27" t="b">
         <v>0</v>
@@ -4480,7 +4497,7 @@
         <v>200</v>
       </c>
       <c r="G9" s="29" t="s">
-        <v>201</v>
+        <v>295</v>
       </c>
       <c r="H9" s="31" t="s">
         <v>186</v>
@@ -4503,7 +4520,7 @@
         <v>50</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>48</v>
@@ -4512,7 +4529,7 @@
         <v>47</v>
       </c>
       <c r="G10" s="29" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H10" s="31" t="s">
         <v>186</v>
@@ -4535,16 +4552,16 @@
         <v>49</v>
       </c>
       <c r="D11" s="24" t="s">
+        <v>203</v>
+      </c>
+      <c r="E11" s="26" t="s">
+        <v>205</v>
+      </c>
+      <c r="F11" s="24" t="s">
         <v>204</v>
       </c>
-      <c r="E11" s="26" t="s">
+      <c r="G11" s="30" t="s">
         <v>206</v>
-      </c>
-      <c r="F11" s="24" t="s">
-        <v>205</v>
-      </c>
-      <c r="G11" s="30" t="s">
-        <v>207</v>
       </c>
       <c r="H11" s="27" t="b">
         <v>0</v>
@@ -4567,7 +4584,7 @@
         <v>53</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="24" t="s">
@@ -4668,7 +4685,7 @@
   <dimension ref="B2:K85"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4741,7 +4758,7 @@
         <v>68</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>69</v>
@@ -4771,14 +4788,14 @@
         <v>59</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="2" t="s">
         <v>60</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H5" s="31" t="s">
         <v>186</v>
@@ -4801,7 +4818,7 @@
         <v>61</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>66</v>
@@ -4810,7 +4827,7 @@
         <v>62</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H6" s="31" t="s">
         <v>186</v>
@@ -4833,14 +4850,14 @@
         <v>63</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="2" t="s">
         <v>64</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H7" s="31" t="s">
         <v>186</v>
@@ -4863,14 +4880,14 @@
         <v>65</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="1" t="s">
         <v>72</v>
       </c>
       <c r="G8" s="29" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H8" s="31" t="s">
         <v>186</v>
@@ -4968,14 +4985,14 @@
   <dimension ref="B2:K85"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:D8"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="6.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.5546875" customWidth="1"/>
-    <col min="4" max="4" width="27.109375" customWidth="1"/>
+    <col min="4" max="4" width="29" customWidth="1"/>
     <col min="5" max="5" width="35.44140625" customWidth="1"/>
     <col min="6" max="6" width="43.21875" customWidth="1"/>
     <col min="7" max="7" width="20.44140625" customWidth="1"/>
@@ -5041,7 +5058,7 @@
         <v>56</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>57</v>
@@ -5050,7 +5067,7 @@
         <v>58</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H4" s="31" t="s">
         <v>186</v>
@@ -5073,7 +5090,7 @@
         <v>73</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="2" t="s">
@@ -5101,7 +5118,7 @@
         <v>75</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>76</v>
@@ -5131,7 +5148,7 @@
         <v>80</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>79</v>
@@ -5161,7 +5178,7 @@
         <v>83</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="1" t="s">
@@ -5289,7 +5306,7 @@
   <dimension ref="B2:K85"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5362,7 +5379,7 @@
         <v>85</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E4" s="26" t="s">
         <v>86</v>
@@ -5371,7 +5388,7 @@
         <v>87</v>
       </c>
       <c r="G4" s="24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H4" s="31" t="s">
         <v>186</v>
@@ -5394,14 +5411,14 @@
         <v>88</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E5" s="38"/>
       <c r="F5" s="26" t="s">
         <v>89</v>
       </c>
       <c r="G5" s="24" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H5" s="31" t="s">
         <v>186</v>
@@ -5424,7 +5441,7 @@
         <v>90</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E6" s="24" t="s">
         <v>92</v>
@@ -5433,7 +5450,7 @@
         <v>77</v>
       </c>
       <c r="G6" s="24" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H6" s="31" t="s">
         <v>186</v>
@@ -5456,7 +5473,7 @@
         <v>91</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E7" s="24" t="s">
         <v>93</v>
@@ -5465,7 +5482,7 @@
         <v>81</v>
       </c>
       <c r="G7" s="24" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H7" s="31" t="s">
         <v>186</v>
@@ -5488,14 +5505,14 @@
         <v>94</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E8" s="26"/>
       <c r="F8" s="24" t="s">
         <v>95</v>
       </c>
       <c r="G8" s="32" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H8" s="31" t="s">
         <v>186</v>
@@ -5523,8 +5540,8 @@
         <v>64</v>
       </c>
       <c r="G9" s="40"/>
-      <c r="H9" s="31" t="s">
-        <v>186</v>
+      <c r="H9" s="56" t="b">
+        <v>0</v>
       </c>
       <c r="I9" s="39">
         <v>45179</v>
@@ -5572,17 +5589,17 @@
         <v>98</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E11" s="38"/>
       <c r="F11" s="26" t="s">
         <v>99</v>
       </c>
       <c r="G11" s="30" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H11" s="52" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I11" s="39">
         <v>45179</v>
@@ -5602,16 +5619,16 @@
         <v>100</v>
       </c>
       <c r="D12" s="24" t="s">
+        <v>235</v>
+      </c>
+      <c r="E12" s="24" t="s">
         <v>236</v>
       </c>
-      <c r="E12" s="24" t="s">
+      <c r="F12" s="24" t="s">
+        <v>234</v>
+      </c>
+      <c r="G12" s="32" t="s">
         <v>237</v>
-      </c>
-      <c r="F12" s="24" t="s">
-        <v>235</v>
-      </c>
-      <c r="G12" s="32" t="s">
-        <v>238</v>
       </c>
       <c r="H12" s="31" t="s">
         <v>186</v>
@@ -5634,14 +5651,14 @@
         <v>102</v>
       </c>
       <c r="D13" s="26" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E13" s="26"/>
       <c r="F13" s="24" t="s">
         <v>103</v>
       </c>
       <c r="G13" s="32" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H13" s="31" t="s">
         <v>186</v>
@@ -5782,7 +5799,7 @@
         <v>105</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E4" s="24" t="s">
         <v>106</v>
@@ -5791,7 +5808,7 @@
         <v>107</v>
       </c>
       <c r="G4" s="24" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H4" s="47" t="s">
         <v>186</v>
@@ -5814,14 +5831,14 @@
         <v>108</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E5" s="25"/>
       <c r="F5" s="24" t="s">
         <v>109</v>
       </c>
       <c r="G5" s="24" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H5" s="47" t="s">
         <v>186</v>
@@ -5851,7 +5868,7 @@
         <v>111</v>
       </c>
       <c r="G6" s="24" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H6" s="47" t="s">
         <v>186</v>
@@ -5907,10 +5924,10 @@
         <v>114</v>
       </c>
       <c r="G8" s="32" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H8" s="53" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I8" s="48">
         <v>45179</v>
@@ -6004,8 +6021,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51C91288-70B3-428A-906E-C603E2370B30}">
   <dimension ref="B2:K85"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6078,7 +6095,7 @@
         <v>116</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E4" s="24" t="s">
         <v>117</v>
@@ -6087,7 +6104,7 @@
         <v>118</v>
       </c>
       <c r="G4" s="24" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H4" s="47" t="s">
         <v>186</v>
@@ -6110,7 +6127,7 @@
         <v>119</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E5" s="25"/>
       <c r="F5" s="24" t="s">
@@ -6138,16 +6155,16 @@
         <v>121</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E6" s="24" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F6" s="24" t="s">
         <v>122</v>
       </c>
       <c r="G6" s="24" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H6" s="47" t="s">
         <v>186</v>
@@ -6198,7 +6215,7 @@
         <v>123</v>
       </c>
       <c r="D8" s="49" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E8" s="24" t="s">
         <v>125</v>
@@ -6207,7 +6224,7 @@
         <v>124</v>
       </c>
       <c r="G8" s="55" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H8" s="51" t="b">
         <v>0</v>
@@ -6294,7 +6311,7 @@
     <row r="85" ht="48.6" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6302,8 +6319,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1449625-E7E0-40C0-ACC1-12FCA5F5F54F}">
   <dimension ref="B2:K85"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6376,7 +6393,7 @@
         <v>130</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E4" s="24" t="s">
         <v>131</v>
@@ -6406,7 +6423,7 @@
         <v>133</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E5" s="25"/>
       <c r="F5" s="24" t="s">
@@ -6434,10 +6451,10 @@
         <v>135</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E6" s="24" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F6" s="24" t="s">
         <v>122</v>
@@ -6464,16 +6481,16 @@
         <v>136</v>
       </c>
       <c r="D7" s="24" t="s">
+        <v>256</v>
+      </c>
+      <c r="E7" s="24" t="s">
         <v>257</v>
-      </c>
-      <c r="E7" s="24" t="s">
-        <v>258</v>
       </c>
       <c r="F7" s="24" t="s">
         <v>137</v>
       </c>
       <c r="G7" s="24" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H7" s="47" t="s">
         <v>186</v>
@@ -6503,7 +6520,7 @@
         <v>139</v>
       </c>
       <c r="G8" s="55" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H8" s="50" t="b">
         <v>0</v>
